--- a/ActividadAlgoritmia1/EjeF(N).xlsx
+++ b/ActividadAlgoritmia1/EjeF(N).xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7800" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-    <sheet name="Gráfico1" sheetId="5" r:id="rId4"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId5"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -177,6 +176,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -519,591 +519,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja4!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja4!$A$2:$A$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>500</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9390-4481-A01A-209F054D446E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja4!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N Bytes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja4!$B$2:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>6592</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25952</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58112</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>103072</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>160832</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>231392</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>314752</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>410912</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>519872</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>641632</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>776192</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>923552</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1083712</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1256672</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1442432</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1640992</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1852352</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2076512</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2313472</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2563232</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2825792</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3101152</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3389312</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3690272</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4004032</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9390-4481-A01A-209F054D446E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja4!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>f(n)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja4!$C$2:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1226</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4846</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10866</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19286</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30106</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43326</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>58946</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>76966</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>97386</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>120206</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>145426</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>173046</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>203066</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>235486</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>270306</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>307526</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>347146</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>389166</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>433586</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>480406</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>529626</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>581246</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>635266</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>691686</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>750506</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9390-4481-A01A-209F054D446E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="2134814847"/>
-        <c:axId val="2134813183"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2134814847"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2134813183"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2134813183"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2134814847"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1552,7 +967,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2015,7 +1430,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2682,6 +2097,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6372,46 +5788,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7249,7 +6625,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7276,8 +6652,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7378,7 +6754,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7410,10 +6786,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7453,22 +6829,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7573,8 +6950,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7706,19 +7083,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7732,6 +7110,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8268,7 +7657,7 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8295,8 +7684,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8376,6 +7765,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8386,6 +7780,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8397,7 +7796,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8417,6 +7816,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8429,10 +7831,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8472,23 +7874,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8593,8 +7994,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8726,20 +8127,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8753,17 +8153,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8783,8 +8172,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8811,8 +8200,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8892,11 +8281,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -8907,11 +8291,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -8923,7 +8302,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8943,9 +8322,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8958,10 +8334,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9001,22 +8377,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9121,8 +8498,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9254,19 +8631,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9280,6 +8658,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9299,8 +8688,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9327,8 +8716,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9408,6 +8797,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9418,6 +8812,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9429,7 +8828,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9449,6 +8848,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9461,10 +8863,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9504,23 +8906,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9625,8 +9026,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9758,20 +9159,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9785,17 +9185,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9815,8 +9204,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9843,8 +9232,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9924,11 +9313,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9939,11 +9323,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -9955,7 +9334,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9975,9 +9354,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9990,10 +9366,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10033,22 +9409,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10153,8 +9530,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10286,19 +9663,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10312,6 +9690,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -10331,7 +9720,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10847,8 +10236,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10875,8 +10264,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10956,6 +10345,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10966,6 +10360,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -10977,7 +10376,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -10997,6 +10396,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11009,10 +10411,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -11052,23 +10454,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -11173,8 +10574,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11306,20 +10707,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -11333,17 +10733,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -11363,8 +10752,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11391,8 +10780,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11472,11 +10861,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -11487,11 +10871,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -11503,7 +10882,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -11523,9 +10902,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11538,10 +10914,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -11581,22 +10957,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -11701,8 +11078,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11834,19 +11211,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -11860,6 +11238,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -11879,7 +11268,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12395,8 +11784,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12423,8 +11812,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12504,6 +11893,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -12514,6 +11908,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -12525,7 +11924,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -12545,532 +11944,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
@@ -13425,17 +12298,6 @@
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="53" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13755,33 +12617,6 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662358" cy="6272123"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -14814,7 +13649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C26"/>
     </sheetView>
   </sheetViews>

--- a/ActividadAlgoritmia1/EjeF(N).xlsx
+++ b/ActividadAlgoritmia1/EjeF(N).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Camilo\Universidad\Sexto Semestre\Ciencias1\ActividadAlgoritmia1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E8E252-C5DC-4306-A30C-1BD7893DDF14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7800" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
   <si>
     <t>N</t>
   </si>
@@ -37,12 +38,36 @@
   <si>
     <t>f(n)</t>
   </si>
+  <si>
+    <t>t(seg)</t>
+  </si>
+  <si>
+    <r>
+      <t>t(mi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>croseg)</t>
+    </r>
+  </si>
+  <si>
+    <t>t (sg)</t>
+  </si>
+  <si>
+    <t>t(microsgs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +79,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,13 +138,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -176,7 +217,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -202,7 +242,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -390,7 +430,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="285939344"/>
@@ -452,7 +492,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="292216592"/>
@@ -493,7 +533,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -538,18 +578,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-CO"/>
+              <a:rPr lang="es-US"/>
               <a:t>N</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="es-CO" baseline="0"/>
-              <a:t> vs N Bytes</a:t>
+              <a:rPr lang="es-US" baseline="0"/>
+              <a:t> vs t(microseg)</a:t>
             </a:r>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -575,7 +614,469 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja3!$A$40:$A$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja3!$C$40:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2E0-46A2-AFFF-0FD2D43C47B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1498540687"/>
+        <c:axId val="1631631007"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1498540687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1631631007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1631631007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1498540687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>N</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" baseline="0"/>
+              <a:t> vs N Bytes</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -853,7 +1354,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2102543199"/>
@@ -915,7 +1416,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2102539871"/>
@@ -956,7 +1457,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -967,7 +1468,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1012,7 +1513,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1038,7 +1538,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1316,7 +1816,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2134812767"/>
@@ -1378,7 +1878,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2134821919"/>
@@ -1419,7 +1919,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1430,7 +1930,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1445,7 +1945,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1471,7 +1970,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1914,7 +2413,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2102538623"/>
@@ -1973,7 +2472,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2102546943"/>
@@ -1990,7 +2489,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2016,7 +2514,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2046,7 +2544,439 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja4!$A$44:$A$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja4!$C$44:$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.95</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.72</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.03</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62.89</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60.69</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>145.38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>94.77</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83.33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>112.37</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>124.03000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>109.59</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>186.76999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>177.95999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8C40-4274-B6EC-88811A592BE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1668870943"/>
+        <c:axId val="1400550767"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1668870943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400550767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1400550767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1668870943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2097,7 +3027,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2123,7 +3052,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2311,7 +3240,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="429262704"/>
@@ -2373,7 +3302,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="297415840"/>
@@ -2414,7 +3343,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2465,7 +3394,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2728,7 +3657,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="433823584"/>
@@ -2787,7 +3716,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519424336"/>
@@ -2829,7 +3758,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2859,7 +3788,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2915,7 +3844,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2941,7 +3869,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3129,7 +4057,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="427246960"/>
@@ -3191,7 +4119,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="512862000"/>
@@ -3232,7 +4160,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3283,7 +4211,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3309,7 +4236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3497,7 +4424,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="523413248"/>
@@ -3559,7 +4486,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="513921296"/>
@@ -3600,7 +4527,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3626,7 +4553,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3652,7 +4578,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3915,7 +4841,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2048971615"/>
@@ -3974,7 +4900,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2048969535"/>
@@ -3991,7 +4917,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4017,7 +4942,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4047,7 +4972,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4103,7 +5028,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4129,7 +5053,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4407,7 +5331,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2128402687"/>
@@ -4469,7 +5393,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2128402271"/>
@@ -4510,7 +5434,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4561,7 +5485,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4587,7 +5510,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4865,7 +5788,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2134810271"/>
@@ -4927,7 +5850,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2134811519"/>
@@ -4968,7 +5891,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4994,7 +5917,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5020,7 +5942,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5485,7 +6407,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2006456879"/>
@@ -5544,7 +6466,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2128404351"/>
@@ -5561,7 +6483,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5587,7 +6508,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5617,7 +6538,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5749,6 +6670,86 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7657,7 +8658,7 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7684,8 +8685,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7765,11 +8766,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7780,11 +8776,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7796,7 +8787,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -7816,6 +8807,532 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
@@ -8153,6 +9670,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -12320,7 +14353,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBFFDBD0-FA5E-4EDD-8411-BA38A8CB0CC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12356,7 +14389,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75ABD89F-95C5-44A5-A977-2A00BEC58AE6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12392,7 +14425,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{979FED3C-11CA-42F6-BA84-5CC5996AD7C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12433,7 +14466,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4702FF4-34E0-4842-A64B-55A3D0B541CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12469,7 +14502,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BB3A7A2-2371-4CF2-A2B2-3EE0963EC6B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12502,7 +14535,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12537,7 +14576,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12567,7 +14612,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12597,7 +14648,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12607,6 +14664,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>173692</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>23532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173692</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>99732</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE4FA202-542C-4F7A-BBB5-3BAD7A451D0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12632,7 +14725,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12662,7 +14761,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12692,7 +14797,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -12702,6 +14813,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>599514</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>90767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>599514</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>166967</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7D85C12-11FB-488D-A298-6FB0B0EC821D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13006,7 +15153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13163,7 +15310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -13319,11 +15466,653 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:C26"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>348</v>
+      </c>
+      <c r="C2" s="1">
+        <f>3*A2+5</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1">
+        <v>668</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C26" si="0">3*A3+5</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1">
+        <v>988</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>80</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1308</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1628</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>120</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1948</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>140</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2268</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>160</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2588</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>180</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2908</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>200</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3228</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>220</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3548</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>240</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3868</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>260</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4188</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>280</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4508</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>300</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4828</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>320</v>
+      </c>
+      <c r="B17" s="1">
+        <v>5148</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>340</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5468</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>360</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5788</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>380</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6108</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>400</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6428</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>420</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6748</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>440</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7068</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>460</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7388</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>480</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7708</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>500</v>
+      </c>
+      <c r="B26" s="1">
+        <v>8028</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>20</v>
+      </c>
+      <c r="B40" s="3">
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="C40" s="1">
+        <f>B40*1000000</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7.1000000000000005E-5</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:C64" si="1">B41*1000000</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>60</v>
+      </c>
+      <c r="B42" s="3">
+        <v>7.2000000000000002E-5</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>80</v>
+      </c>
+      <c r="B43" s="3">
+        <v>6.7999999999999999E-5</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>100</v>
+      </c>
+      <c r="B44" s="1">
+        <v>6.3E-5</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>120</v>
+      </c>
+      <c r="B45" s="1">
+        <v>7.3999999999999996E-5</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>140</v>
+      </c>
+      <c r="B46" s="1">
+        <v>9.5000000000000005E-5</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>160</v>
+      </c>
+      <c r="B47" s="1">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>180</v>
+      </c>
+      <c r="B48" s="1">
+        <v>6.4999999999999994E-5</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>200</v>
+      </c>
+      <c r="B49" s="1">
+        <v>9.3999999999999994E-5</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>220</v>
+      </c>
+      <c r="B50" s="1">
+        <v>8.8999999999999995E-5</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>240</v>
+      </c>
+      <c r="B51" s="1">
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>260</v>
+      </c>
+      <c r="B52" s="1">
+        <v>9.1000000000000003E-5</v>
+      </c>
+      <c r="C52" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>280</v>
+      </c>
+      <c r="B53" s="1">
+        <v>9.2E-5</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>300</v>
+      </c>
+      <c r="B54" s="1">
+        <v>9.3999999999999994E-5</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>320</v>
+      </c>
+      <c r="B55" s="1">
+        <v>9.1000000000000003E-5</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>340</v>
+      </c>
+      <c r="B56" s="1">
+        <v>9.1000000000000003E-5</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>360</v>
+      </c>
+      <c r="B57" s="1">
+        <v>8.3999999999999995E-5</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>380</v>
+      </c>
+      <c r="B58" s="1">
+        <v>9.2E-5</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>400</v>
+      </c>
+      <c r="B59" s="1">
+        <v>1.03E-4</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>420</v>
+      </c>
+      <c r="B60" s="1">
+        <v>9.5000000000000005E-5</v>
+      </c>
+      <c r="C60" s="1">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>440</v>
+      </c>
+      <c r="B61" s="1">
+        <v>1.13E-4</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>460</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1.07E-4</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>480</v>
+      </c>
+      <c r="B63" s="1">
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>500</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1.15E-4</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13344,11 +16133,11 @@
         <v>20</v>
       </c>
       <c r="B2" s="1">
-        <v>348</v>
+        <v>6592</v>
       </c>
       <c r="C2" s="1">
-        <f>3*A2+5</f>
-        <v>65</v>
+        <f>3*(A2*A2)+A2+6</f>
+        <v>1226</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -13356,11 +16145,11 @@
         <v>40</v>
       </c>
       <c r="B3" s="1">
-        <v>668</v>
+        <v>25952</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C26" si="0">3*A3+5</f>
-        <v>125</v>
+        <f t="shared" ref="C3:C26" si="0">3*(A3*A3)+A3+6</f>
+        <v>4846</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -13368,11 +16157,11 @@
         <v>60</v>
       </c>
       <c r="B4" s="1">
-        <v>988</v>
+        <v>58112</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>10866</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13380,11 +16169,11 @@
         <v>80</v>
       </c>
       <c r="B5" s="1">
-        <v>1308</v>
+        <v>103072</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>19286</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -13392,11 +16181,11 @@
         <v>100</v>
       </c>
       <c r="B6" s="1">
-        <v>1628</v>
+        <v>160832</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>305</v>
+        <v>30106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -13404,11 +16193,11 @@
         <v>120</v>
       </c>
       <c r="B7" s="1">
-        <v>1948</v>
+        <v>231392</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>365</v>
+        <v>43326</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -13416,11 +16205,11 @@
         <v>140</v>
       </c>
       <c r="B8" s="1">
-        <v>2268</v>
+        <v>314752</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>425</v>
+        <v>58946</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -13428,11 +16217,11 @@
         <v>160</v>
       </c>
       <c r="B9" s="1">
-        <v>2588</v>
+        <v>410912</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>485</v>
+        <v>76966</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -13440,11 +16229,11 @@
         <v>180</v>
       </c>
       <c r="B10" s="1">
-        <v>2908</v>
+        <v>519872</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>545</v>
+        <v>97386</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -13452,11 +16241,11 @@
         <v>200</v>
       </c>
       <c r="B11" s="1">
-        <v>3228</v>
+        <v>641632</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>605</v>
+        <v>120206</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -13464,11 +16253,11 @@
         <v>220</v>
       </c>
       <c r="B12" s="1">
-        <v>3548</v>
+        <v>776192</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
-        <v>665</v>
+        <v>145426</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -13476,11 +16265,11 @@
         <v>240</v>
       </c>
       <c r="B13" s="1">
-        <v>3868</v>
+        <v>923552</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
-        <v>725</v>
+        <v>173046</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -13488,11 +16277,11 @@
         <v>260</v>
       </c>
       <c r="B14" s="1">
-        <v>4188</v>
+        <v>1083712</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>785</v>
+        <v>203066</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -13500,11 +16289,11 @@
         <v>280</v>
       </c>
       <c r="B15" s="1">
-        <v>4508</v>
+        <v>1256672</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>845</v>
+        <v>235486</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -13512,11 +16301,11 @@
         <v>300</v>
       </c>
       <c r="B16" s="1">
-        <v>4828</v>
+        <v>1442432</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>905</v>
+        <v>270306</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -13524,11 +16313,11 @@
         <v>320</v>
       </c>
       <c r="B17" s="1">
-        <v>5148</v>
+        <v>1640992</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>965</v>
+        <v>307526</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -13536,11 +16325,11 @@
         <v>340</v>
       </c>
       <c r="B18" s="1">
-        <v>5468</v>
+        <v>1852352</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
-        <v>1025</v>
+        <v>347146</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -13548,11 +16337,11 @@
         <v>360</v>
       </c>
       <c r="B19" s="1">
-        <v>5788</v>
+        <v>2076512</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
-        <v>1085</v>
+        <v>389166</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -13560,11 +16349,11 @@
         <v>380</v>
       </c>
       <c r="B20" s="1">
-        <v>6108</v>
+        <v>2313472</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
-        <v>1145</v>
+        <v>433586</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -13572,11 +16361,11 @@
         <v>400</v>
       </c>
       <c r="B21" s="1">
-        <v>6428</v>
+        <v>2563232</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
-        <v>1205</v>
+        <v>480406</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -13584,11 +16373,11 @@
         <v>420</v>
       </c>
       <c r="B22" s="1">
-        <v>6748</v>
+        <v>2825792</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
-        <v>1265</v>
+        <v>529626</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -13596,11 +16385,11 @@
         <v>440</v>
       </c>
       <c r="B23" s="1">
-        <v>7068</v>
+        <v>3101152</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
-        <v>1325</v>
+        <v>581246</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -13608,11 +16397,11 @@
         <v>460</v>
       </c>
       <c r="B24" s="1">
-        <v>7388</v>
+        <v>3389312</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
-        <v>1385</v>
+        <v>635266</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -13620,11 +16409,11 @@
         <v>480</v>
       </c>
       <c r="B25" s="1">
-        <v>7708</v>
+        <v>3690272</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
-        <v>1445</v>
+        <v>691686</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -13632,338 +16421,322 @@
         <v>500</v>
       </c>
       <c r="B26" s="1">
-        <v>8028</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>1505</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1">
-        <v>6592</v>
-      </c>
-      <c r="C2" s="1">
-        <f>3*(A2*A2)+A2+6</f>
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>40</v>
-      </c>
-      <c r="B3" s="1">
-        <v>25952</v>
-      </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C26" si="0">3*(A3*A3)+A3+6</f>
-        <v>4846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>60</v>
-      </c>
-      <c r="B4" s="1">
-        <v>58112</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>10866</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>80</v>
-      </c>
-      <c r="B5" s="1">
-        <v>103072</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>19286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>100</v>
-      </c>
-      <c r="B6" s="1">
-        <v>160832</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>30106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>120</v>
-      </c>
-      <c r="B7" s="1">
-        <v>231392</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>43326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>140</v>
-      </c>
-      <c r="B8" s="1">
-        <v>314752</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>58946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>160</v>
-      </c>
-      <c r="B9" s="1">
-        <v>410912</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>76966</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>180</v>
-      </c>
-      <c r="B10" s="1">
-        <v>519872</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>97386</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>200</v>
-      </c>
-      <c r="B11" s="1">
-        <v>641632</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>120206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>220</v>
-      </c>
-      <c r="B12" s="1">
-        <v>776192</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>145426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>240</v>
-      </c>
-      <c r="B13" s="1">
-        <v>923552</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>173046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>260</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1083712</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>203066</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>280</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1256672</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>235486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>300</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1442432</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>270306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>320</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1640992</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>307526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>340</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1852352</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>347146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>360</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2076512</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>389166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>380</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2313472</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>433586</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>400</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2563232</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>480406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>420</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2825792</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>529626</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>440</v>
-      </c>
-      <c r="B23" s="1">
-        <v>3101152</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>581246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>460</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3389312</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>635266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>480</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3690272</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>691686</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>500</v>
-      </c>
-      <c r="B26" s="1">
         <v>4004032</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>750506</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>20</v>
+      </c>
+      <c r="B44" s="5">
+        <v>1.93E-4</v>
+      </c>
+      <c r="C44" s="5">
+        <f>B44*10000</f>
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>40</v>
+      </c>
+      <c r="B45" s="5">
+        <v>2.0100000000000001E-4</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" ref="C45:C68" si="1">B45*10000</f>
+        <v>2.0100000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>60</v>
+      </c>
+      <c r="B46" s="5">
+        <v>3.8699999999999997E-4</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="1"/>
+        <v>3.8699999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>80</v>
+      </c>
+      <c r="B47" s="5">
+        <v>6.0899999999999995E-4</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" si="1"/>
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>100</v>
+      </c>
+      <c r="B48" s="5">
+        <v>8.6799999999999996E-4</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="1"/>
+        <v>8.68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>120</v>
+      </c>
+      <c r="B49" s="5">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="1"/>
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>140</v>
+      </c>
+      <c r="B50" s="5">
+        <v>1.7359999999999999E-3</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" si="1"/>
+        <v>17.36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>160</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1.7949999999999999E-3</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" si="1"/>
+        <v>17.95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>180</v>
+      </c>
+      <c r="B52" s="5">
+        <v>1.804E-3</v>
+      </c>
+      <c r="C52" s="5">
+        <f t="shared" si="1"/>
+        <v>18.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>200</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2.1719999999999999E-3</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" si="1"/>
+        <v>21.72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>220</v>
+      </c>
+      <c r="B54" s="5">
+        <v>2.6319999999999998E-3</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" si="1"/>
+        <v>26.319999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>240</v>
+      </c>
+      <c r="B55" s="5">
+        <v>6.411E-3</v>
+      </c>
+      <c r="C55" s="5">
+        <f t="shared" si="1"/>
+        <v>64.11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>260</v>
+      </c>
+      <c r="B56" s="5">
+        <v>4.568E-3</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" si="1"/>
+        <v>45.68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>280</v>
+      </c>
+      <c r="B57" s="5">
+        <v>5.1029999999999999E-3</v>
+      </c>
+      <c r="C57" s="5">
+        <f t="shared" si="1"/>
+        <v>51.03</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>300</v>
+      </c>
+      <c r="B58" s="5">
+        <v>6.2890000000000003E-3</v>
+      </c>
+      <c r="C58" s="5">
+        <f t="shared" si="1"/>
+        <v>62.89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>320</v>
+      </c>
+      <c r="B59" s="5">
+        <v>6.953E-3</v>
+      </c>
+      <c r="C59" s="5">
+        <f t="shared" si="1"/>
+        <v>69.53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>340</v>
+      </c>
+      <c r="B60" s="5">
+        <v>6.0689999999999997E-3</v>
+      </c>
+      <c r="C60" s="5">
+        <f t="shared" si="1"/>
+        <v>60.69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>360</v>
+      </c>
+      <c r="B61" s="5">
+        <v>1.4538000000000001E-2</v>
+      </c>
+      <c r="C61" s="5">
+        <f t="shared" si="1"/>
+        <v>145.38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>380</v>
+      </c>
+      <c r="B62" s="5">
+        <v>9.4769999999999993E-3</v>
+      </c>
+      <c r="C62" s="5">
+        <f t="shared" si="1"/>
+        <v>94.77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>400</v>
+      </c>
+      <c r="B63" s="5">
+        <v>8.3330000000000001E-3</v>
+      </c>
+      <c r="C63" s="5">
+        <f t="shared" si="1"/>
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>420</v>
+      </c>
+      <c r="B64" s="5">
+        <v>1.1237E-2</v>
+      </c>
+      <c r="C64" s="5">
+        <f t="shared" si="1"/>
+        <v>112.37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>440</v>
+      </c>
+      <c r="B65" s="5">
+        <v>1.2403000000000001E-2</v>
+      </c>
+      <c r="C65" s="5">
+        <f t="shared" si="1"/>
+        <v>124.03000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>460</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1.0959E-2</v>
+      </c>
+      <c r="C66" s="5">
+        <f t="shared" si="1"/>
+        <v>109.59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>480</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1.8676999999999999E-2</v>
+      </c>
+      <c r="C67" s="5">
+        <f t="shared" si="1"/>
+        <v>186.76999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>500</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1.7795999999999999E-2</v>
+      </c>
+      <c r="C68" s="5">
+        <f t="shared" si="1"/>
+        <v>177.95999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/ActividadAlgoritmia1/EjeF(N).xlsx
+++ b/ActividadAlgoritmia1/EjeF(N).xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Camilo\Universidad\Sexto Semestre\Ciencias1\ActividadAlgoritmia1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E8E252-C5DC-4306-A30C-1BD7893DDF14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="Burbuja" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>N</t>
   </si>
@@ -62,11 +62,26 @@
   <si>
     <t>t(microsgs)</t>
   </si>
+  <si>
+    <t>t(N)</t>
+  </si>
+  <si>
+    <t>tiempo(seg)</t>
+  </si>
+  <si>
+    <t>tiempo(microseg)</t>
+  </si>
+  <si>
+    <t>Peor</t>
+  </si>
+  <si>
+    <t>Mejor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -154,6 +169,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -242,7 +264,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -430,7 +452,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="285939344"/>
@@ -492,7 +514,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="292216592"/>
@@ -533,7 +555,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -614,7 +636,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -892,7 +914,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1631631007"/>
@@ -954,7 +976,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1498540687"/>
@@ -995,7 +1017,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1076,7 +1098,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1354,7 +1376,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2102543199"/>
@@ -1416,7 +1438,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2102539871"/>
@@ -1457,7 +1479,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1513,6 +1535,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1538,7 +1561,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1816,7 +1839,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2134812767"/>
@@ -1878,7 +1901,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2134821919"/>
@@ -1919,7 +1942,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1970,7 +1993,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2413,7 +2436,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2102538623"/>
@@ -2472,7 +2495,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2102546943"/>
@@ -2514,7 +2537,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2544,7 +2567,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2570,6 +2593,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2595,7 +2619,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2873,7 +2897,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1400550767"/>
@@ -2935,7 +2959,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1668870943"/>
@@ -2976,7 +3000,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3052,7 +3076,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3240,7 +3264,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="429262704"/>
@@ -3302,7 +3326,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="297415840"/>
@@ -3343,7 +3367,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3394,7 +3418,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3657,7 +3681,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="433823584"/>
@@ -3716,7 +3740,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519424336"/>
@@ -3758,7 +3782,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3788,7 +3812,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3869,7 +3893,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4057,7 +4081,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="427246960"/>
@@ -4119,7 +4143,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="512862000"/>
@@ -4160,7 +4184,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4236,7 +4260,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4424,7 +4448,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="523413248"/>
@@ -4486,7 +4510,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="513921296"/>
@@ -4527,7 +4551,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4578,7 +4602,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4841,7 +4865,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2048971615"/>
@@ -4900,7 +4924,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2048969535"/>
@@ -4942,7 +4966,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4972,7 +4996,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5053,7 +5077,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5331,7 +5355,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2128402687"/>
@@ -5393,7 +5417,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2128402271"/>
@@ -5434,7 +5458,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5510,7 +5534,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5788,7 +5812,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2134810271"/>
@@ -5850,7 +5874,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2134811519"/>
@@ -5891,7 +5915,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5942,7 +5966,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6407,7 +6431,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2006456879"/>
@@ -6466,7 +6490,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2128404351"/>
@@ -6508,7 +6532,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6538,7 +6562,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15153,7 +15177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15310,7 +15334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -15466,7 +15490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -16108,10 +16132,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
@@ -16743,4 +16767,1567 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <f>(A3^2-A3)/2</f>
+        <v>45</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="D3">
+        <f>C3*1000000</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="6">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <f>F3^2-F3</f>
+        <v>90</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="I3">
+        <f>H3*1000000</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B52" si="0">(A4^2-A4)/2</f>
+        <v>190</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D52" si="1">C4*1000000</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G52" si="2">F4^2-F4</f>
+        <v>380</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I52" si="3">H4*1000000</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>870</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>1560</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>1225</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>2450</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1770</v>
+      </c>
+      <c r="C8" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>60</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>3540</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2415</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>70</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>4830</v>
+      </c>
+      <c r="H9" s="6">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>3160</v>
+      </c>
+      <c r="C10" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>6320</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>4005</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>90</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>8010</v>
+      </c>
+      <c r="H11" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>4950</v>
+      </c>
+      <c r="C12" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>9900</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>5995</v>
+      </c>
+      <c r="C13" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>110</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>11990</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>7140</v>
+      </c>
+      <c r="C14" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>120</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>14280</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>8385</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>130</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>16770</v>
+      </c>
+      <c r="H15" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>140</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>9730</v>
+      </c>
+      <c r="C16" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>140</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>19460</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>11175</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>150</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>22350</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>12720</v>
+      </c>
+      <c r="C18" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>160</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>25440</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>170</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>14365</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>170</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>28730</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>16110</v>
+      </c>
+      <c r="C20" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>180</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>32220</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>190</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>17955</v>
+      </c>
+      <c r="C21" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>190</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>35910</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>200</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>19900</v>
+      </c>
+      <c r="C22" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>200</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>39800</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>210</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>21945</v>
+      </c>
+      <c r="C23" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>210</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>43890</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>220</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>24090</v>
+      </c>
+      <c r="C24" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>220</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>48180</v>
+      </c>
+      <c r="H24" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>230</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>26335</v>
+      </c>
+      <c r="C25" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>230</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>52670</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>240</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>28680</v>
+      </c>
+      <c r="C26" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>240</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>57360</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>250</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>31125</v>
+      </c>
+      <c r="C27" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F27" s="6">
+        <v>250</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>62250</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>260</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>33670</v>
+      </c>
+      <c r="C28" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>260</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>67340</v>
+      </c>
+      <c r="H28" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>270</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>36315</v>
+      </c>
+      <c r="C29" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F29" s="6">
+        <v>270</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>72630</v>
+      </c>
+      <c r="H29" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>280</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>39060</v>
+      </c>
+      <c r="C30" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="6">
+        <v>280</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>78120</v>
+      </c>
+      <c r="H30" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>290</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>41905</v>
+      </c>
+      <c r="C31" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
+        <v>290</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>83810</v>
+      </c>
+      <c r="H31" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>300</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>44850</v>
+      </c>
+      <c r="C32" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F32" s="6">
+        <v>300</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>89700</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>310</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>47895</v>
+      </c>
+      <c r="C33" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F33" s="6">
+        <v>310</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>95790</v>
+      </c>
+      <c r="H33" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>320</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>51040</v>
+      </c>
+      <c r="C34" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>320</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>102080</v>
+      </c>
+      <c r="H34" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>330</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>54285</v>
+      </c>
+      <c r="C35" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>330</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>108570</v>
+      </c>
+      <c r="H35" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>340</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>57630</v>
+      </c>
+      <c r="C36" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
+        <v>340</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>115260</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>350</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>61075</v>
+      </c>
+      <c r="C37" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>350</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>122150</v>
+      </c>
+      <c r="H37" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>360</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>64620</v>
+      </c>
+      <c r="C38" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F38" s="6">
+        <v>360</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>129240</v>
+      </c>
+      <c r="H38" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>370</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>68265</v>
+      </c>
+      <c r="C39" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>370</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>136530</v>
+      </c>
+      <c r="H39" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>380</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>72010</v>
+      </c>
+      <c r="C40" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F40" s="6">
+        <v>380</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>144020</v>
+      </c>
+      <c r="H40" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>390</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>75855</v>
+      </c>
+      <c r="C41" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F41" s="6">
+        <v>390</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>151710</v>
+      </c>
+      <c r="H41" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>400</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>79800</v>
+      </c>
+      <c r="C42" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="6">
+        <v>400</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>159600</v>
+      </c>
+      <c r="H42" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>410</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>83845</v>
+      </c>
+      <c r="C43" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <v>410</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>167690</v>
+      </c>
+      <c r="H43" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>420</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>87990</v>
+      </c>
+      <c r="C44" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
+        <v>420</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>175980</v>
+      </c>
+      <c r="H44" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>430</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>92235</v>
+      </c>
+      <c r="C45" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F45" s="6">
+        <v>430</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>184470</v>
+      </c>
+      <c r="H45" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>440</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>96580</v>
+      </c>
+      <c r="C46" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F46" s="6">
+        <v>440</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>193160</v>
+      </c>
+      <c r="H46" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>450</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>101025</v>
+      </c>
+      <c r="C47" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F47" s="6">
+        <v>450</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>202050</v>
+      </c>
+      <c r="H47" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>460</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>105570</v>
+      </c>
+      <c r="C48" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F48" s="6">
+        <v>460</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>211140</v>
+      </c>
+      <c r="H48" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>470</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>110215</v>
+      </c>
+      <c r="C49" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F49" s="6">
+        <v>470</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>220430</v>
+      </c>
+      <c r="H49" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>480</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>114960</v>
+      </c>
+      <c r="C50" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F50" s="6">
+        <v>480</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>229920</v>
+      </c>
+      <c r="H50" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>490</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>119805</v>
+      </c>
+      <c r="C51" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>490</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>239610</v>
+      </c>
+      <c r="H51" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>500</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>124750</v>
+      </c>
+      <c r="C52" s="6">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F52" s="6">
+        <v>500</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>249500</v>
+      </c>
+      <c r="H52" s="6">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ActividadAlgoritmia1/EjeF(N).xlsx
+++ b/ActividadAlgoritmia1/EjeF(N).xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="Eje1" sheetId="1" r:id="rId1"/>
+    <sheet name="Eje2" sheetId="2" r:id="rId2"/>
+    <sheet name="Eje3" sheetId="3" r:id="rId3"/>
+    <sheet name="Eje4" sheetId="4" r:id="rId4"/>
     <sheet name="Burbuja" sheetId="5" r:id="rId5"/>
     <sheet name="Inserccion" sheetId="6" r:id="rId6"/>
     <sheet name="Selección" sheetId="7" r:id="rId7"/>
@@ -155,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -183,6 +183,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -256,6 +259,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -320,7 +324,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$11</c:f>
+              <c:f>'Eje1'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -359,7 +363,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$11</c:f>
+              <c:f>'Eje1'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -628,6 +632,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -692,7 +697,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$A$40:$A$64</c:f>
+              <c:f>'Eje3'!$A$40:$A$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -776,7 +781,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$C$40:$C$64</c:f>
+              <c:f>'Eje3'!$C$40:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1154,7 +1159,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja4!$A$2:$A$26</c:f>
+              <c:f>'Eje4'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1238,7 +1243,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja4!$B$2:$B$26</c:f>
+              <c:f>'Eje4'!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1617,7 +1622,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja4!$A$2:$A$26</c:f>
+              <c:f>'Eje4'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -1701,7 +1706,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja4!$C$2:$C$26</c:f>
+              <c:f>'Eje4'!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2038,7 +2043,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja4!$A$2:$A$26</c:f>
+              <c:f>'Eje4'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2122,7 +2127,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja4!$B$2:$B$26</c:f>
+              <c:f>'Eje4'!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2228,7 +2233,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja4!$A$2:$A$26</c:f>
+              <c:f>'Eje4'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2312,7 +2317,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja4!$C$2:$C$26</c:f>
+              <c:f>'Eje4'!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2677,7 +2682,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja4!$A$44:$A$68</c:f>
+              <c:f>'Eje4'!$A$44:$A$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -2761,7 +2766,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja4!$C$44:$C$68</c:f>
+              <c:f>'Eje4'!$C$44:$C$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -3872,154 +3877,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0.39999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>3.3000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>6.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>11.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>70</c:v>
+                  <c:v>21.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>101</c:v>
+                  <c:v>25.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>103</c:v>
+                  <c:v>38.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>115</c:v>
+                  <c:v>36.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>138</c:v>
+                  <c:v>41.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>149</c:v>
+                  <c:v>46.699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>169</c:v>
+                  <c:v>52.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>186</c:v>
+                  <c:v>64.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>198</c:v>
+                  <c:v>65.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>231</c:v>
+                  <c:v>72.3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>240</c:v>
+                  <c:v>80.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>275</c:v>
+                  <c:v>87.100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>304</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>316</c:v>
+                  <c:v>103.6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>348</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>370</c:v>
+                  <c:v>121.10000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>415</c:v>
+                  <c:v>131.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>444</c:v>
+                  <c:v>141.29999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>478</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>496</c:v>
+                  <c:v>156.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>523</c:v>
+                  <c:v>231.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>577</c:v>
+                  <c:v>246.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>611</c:v>
+                  <c:v>247.6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>630</c:v>
+                  <c:v>266.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>683</c:v>
+                  <c:v>270.3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>712</c:v>
+                  <c:v>250.1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>741</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>816</c:v>
+                  <c:v>246.49999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>865</c:v>
+                  <c:v>257.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>893</c:v>
+                  <c:v>273.7</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>928</c:v>
+                  <c:v>284.8</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>965</c:v>
+                  <c:v>298.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1000</c:v>
+                  <c:v>368.1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1035</c:v>
+                  <c:v>327.8</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1081</c:v>
+                  <c:v>395.8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1123</c:v>
+                  <c:v>358.29999999999995</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1239</c:v>
+                  <c:v>373.1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1263</c:v>
+                  <c:v>415.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1284</c:v>
+                  <c:v>404.9</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1411</c:v>
+                  <c:v>422.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5032,154 +5037,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0.79999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27</c:v>
+                  <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>8.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>10.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>15.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57</c:v>
+                  <c:v>17.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>66</c:v>
+                  <c:v>20.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>78</c:v>
+                  <c:v>23.099999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82</c:v>
+                  <c:v>26.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>95</c:v>
+                  <c:v>29.6</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>108</c:v>
+                  <c:v>34.199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>119</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>134</c:v>
+                  <c:v>40.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>148</c:v>
+                  <c:v>44.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>162</c:v>
+                  <c:v>48.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>183</c:v>
+                  <c:v>53.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>194</c:v>
+                  <c:v>58.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>211</c:v>
+                  <c:v>63.2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>224</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>271</c:v>
+                  <c:v>74.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>258</c:v>
+                  <c:v>79.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>277</c:v>
+                  <c:v>84.8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>311</c:v>
+                  <c:v>90.9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>313</c:v>
+                  <c:v>97.100000000000009</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>341</c:v>
+                  <c:v>104.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>370</c:v>
+                  <c:v>109.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>380</c:v>
+                  <c:v>117.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>409</c:v>
+                  <c:v>123.9</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>446</c:v>
+                  <c:v>130.6</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>454</c:v>
+                  <c:v>137.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>492.00000000000006</c:v>
+                  <c:v>144.6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>522</c:v>
+                  <c:v>152.9</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>522</c:v>
+                  <c:v>160.9</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>557</c:v>
+                  <c:v>169.29999999999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>572</c:v>
+                  <c:v>174.9</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>626</c:v>
+                  <c:v>267.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>649</c:v>
+                  <c:v>254.9</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>664</c:v>
+                  <c:v>202.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>715</c:v>
+                  <c:v>212.3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>737</c:v>
+                  <c:v>221.7</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>773</c:v>
+                  <c:v>231.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>842</c:v>
+                  <c:v>242.3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>821</c:v>
+                  <c:v>254.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5980,6 +5985,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6044,7 +6050,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$11</c:f>
+              <c:f>'Eje1'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6083,7 +6089,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$11</c:f>
+              <c:f>'Eje1'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -6569,154 +6575,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0.79999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12</c:v>
+                  <c:v>3.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>5.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28</c:v>
+                  <c:v>8.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51</c:v>
+                  <c:v>15.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58</c:v>
+                  <c:v>17.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>65</c:v>
+                  <c:v>19.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>73</c:v>
+                  <c:v>21.900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>80</c:v>
+                  <c:v>24.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>89</c:v>
+                  <c:v>26.9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>98</c:v>
+                  <c:v>29.6</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>107</c:v>
+                  <c:v>32.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>113</c:v>
+                  <c:v>35.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>126</c:v>
+                  <c:v>38.4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>137</c:v>
+                  <c:v>41.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>157</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>160</c:v>
+                  <c:v>48.4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>179</c:v>
+                  <c:v>51.9</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>179</c:v>
+                  <c:v>55.6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>199</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>217</c:v>
+                  <c:v>79.7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>219</c:v>
+                  <c:v>84.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>236</c:v>
+                  <c:v>90.8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>252</c:v>
+                  <c:v>94.9</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>273</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>282</c:v>
+                  <c:v>85.1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>291</c:v>
+                  <c:v>89.8</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>318</c:v>
+                  <c:v>94.6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>327</c:v>
+                  <c:v>99.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>364</c:v>
+                  <c:v>104.6</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>374</c:v>
+                  <c:v>137.4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>397</c:v>
+                  <c:v>115.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>429</c:v>
+                  <c:v>124.6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>438</c:v>
+                  <c:v>126.2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>443</c:v>
+                  <c:v>132.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>437</c:v>
+                  <c:v>137.79999999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>460</c:v>
+                  <c:v>180.4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>475</c:v>
+                  <c:v>186.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>499</c:v>
+                  <c:v>233.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>515</c:v>
+                  <c:v>162.20000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7612,7 +7618,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -7627,19 +7633,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -7807,159 +7801,159 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>9.9999999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>9.9999999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>9.9999999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>9.9999999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>9.9999999999999992E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22</c:v>
+                  <c:v>0.39999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32</c:v>
+                  <c:v>0.39999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36</c:v>
+                  <c:v>0.39999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45</c:v>
+                  <c:v>0.39999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>64</c:v>
+                  <c:v>0.39999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>59</c:v>
+                  <c:v>0.39999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>65</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>70</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>76</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>82</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>104</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>118</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>124</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>112</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>116</c:v>
+                  <c:v>0.79999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>124</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>131</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>140</c:v>
+                  <c:v>0.79999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>177</c:v>
+                  <c:v>0.79999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>173</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>164</c:v>
+                  <c:v>0.79999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>172</c:v>
+                  <c:v>0.79999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>210</c:v>
+                  <c:v>0.79999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>190</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>238</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>210</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>219</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>245</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>280</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>250.99999999999997</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>263</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>273</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>325</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>344</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B9F-44E9-98DE-DADD782457B1}"/>
@@ -9021,154 +9015,154 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.6000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="13">
+                  <c:v>11.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>52</c:v>
+                  <c:v>16.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62</c:v>
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>68</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>22.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36.699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>58.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>68.800000000000011</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>161</c:v>
-                </c:pt>
                 <c:pt idx="33">
-                  <c:v>169</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>201</c:v>
+                  <c:v>65.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>187</c:v>
+                  <c:v>68.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>196</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>247</c:v>
+                  <c:v>76.699999999999989</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>215</c:v>
+                  <c:v>80.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>214</c:v>
+                  <c:v>84.9</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>229</c:v>
+                  <c:v>88.7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>255.00000000000003</c:v>
+                  <c:v>93.2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>264</c:v>
+                  <c:v>97.2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>260</c:v>
+                  <c:v>101.89999999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>264</c:v>
+                  <c:v>106.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>284</c:v>
+                  <c:v>111.3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>321</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>329</c:v>
+                  <c:v>120.7</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>324</c:v>
+                  <c:v>125.8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>396</c:v>
+                  <c:v>130.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9411,7 +9405,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$11</c:f>
+              <c:f>'Eje1'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9450,7 +9444,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$11</c:f>
+              <c:f>'Eje1'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9511,7 +9505,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$11</c:f>
+              <c:f>'Eje1'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9550,7 +9544,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$2:$C$11</c:f>
+              <c:f>'Eje1'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9834,6 +9828,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9898,7 +9893,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja2!$A$2:$A$11</c:f>
+              <c:f>'Eje2'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9937,7 +9932,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja2!$B$2:$B$11</c:f>
+              <c:f>'Eje2'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10201,6 +10196,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10265,7 +10261,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja2!$A$2:$A$11</c:f>
+              <c:f>'Eje2'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10304,7 +10300,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja2!$C$2:$C$11</c:f>
+              <c:f>'Eje2'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10543,6 +10539,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10595,7 +10592,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja2!$A$2:$A$11</c:f>
+              <c:f>'Eje2'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10634,7 +10631,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$B$2:$B$11</c:f>
+              <c:f>'Eje2'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10695,7 +10692,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja2!$A$2:$A$11</c:f>
+              <c:f>'Eje2'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10734,7 +10731,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja2!$C$2:$C$11</c:f>
+              <c:f>'Eje2'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10907,6 +10904,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11082,7 +11080,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$A$2:$A$26</c:f>
+              <c:f>'Eje3'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -11166,7 +11164,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$B$2:$B$26</c:f>
+              <c:f>'Eje3'!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -11475,6 +11473,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11539,7 +11538,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja3!$A$2:$A$26</c:f>
+              <c:f>'Eje3'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -11623,7 +11622,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja3!$C$2:$C$26</c:f>
+              <c:f>'Eje3'!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -11907,6 +11906,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11947,7 +11947,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$B$1</c:f>
+              <c:f>'Eje3'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11970,7 +11970,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja3!$A$2:$A$26</c:f>
+              <c:f>'Eje3'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -12054,7 +12054,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$B$2:$B$26</c:f>
+              <c:f>'Eje3'!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -12148,7 +12148,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja3!$C$1</c:f>
+              <c:f>'Eje3'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12171,7 +12171,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja3!$A$2:$A$26</c:f>
+              <c:f>'Eje3'!$A$2:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -12255,7 +12255,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$C$2:$C$26</c:f>
+              <c:f>'Eje3'!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
@@ -12473,6 +12473,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -27977,7 +27978,7 @@
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28614,32 +28615,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="16.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="7"/>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -28648,7 +28651,7 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -28677,11 +28680,11 @@
         <v>90</v>
       </c>
       <c r="C3" s="3">
-        <v>3.9999999999999998E-6</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="D3" s="1">
         <f>C3*1000000</f>
-        <v>4</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="E3" s="7"/>
       <c r="J3" s="3">
@@ -28692,11 +28695,11 @@
         <v>45</v>
       </c>
       <c r="L3" s="3">
-        <v>3.0000000000000001E-6</v>
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="M3" s="1">
         <f>L3*1000000</f>
-        <v>3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -28708,11 +28711,11 @@
         <v>380</v>
       </c>
       <c r="C4" s="3">
-        <v>3.9999999999999998E-6</v>
+        <v>1.1999999999999999E-6</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D52" si="1">C4*1000000</f>
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="E4" s="7"/>
       <c r="J4" s="3">
@@ -28723,11 +28726,11 @@
         <v>190</v>
       </c>
       <c r="L4" s="3">
-        <v>3.0000000000000001E-6</v>
+        <v>7.9999999999999996E-7</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ref="M4:M52" si="3">L4*1000000</f>
-        <v>3</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -28739,11 +28742,11 @@
         <v>870</v>
       </c>
       <c r="C5" s="3">
-        <v>7.9999999999999996E-6</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5" s="7"/>
       <c r="J5" s="3">
@@ -28754,11 +28757,11 @@
         <v>435</v>
       </c>
       <c r="L5" s="3">
-        <v>3.9999999999999998E-6</v>
+        <v>1.1000000000000001E-6</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -28770,11 +28773,11 @@
         <v>1560</v>
       </c>
       <c r="C6" s="3">
-        <v>1.0000000000000001E-5</v>
+        <v>3.3000000000000002E-6</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="E6" s="7"/>
       <c r="J6" s="3">
@@ -28785,11 +28788,11 @@
         <v>780</v>
       </c>
       <c r="L6" s="3">
-        <v>6.9999999999999999E-6</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -28801,11 +28804,11 @@
         <v>2450</v>
       </c>
       <c r="C7" s="3">
-        <v>1.5999999999999999E-5</v>
+        <v>4.7999999999999998E-6</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>4.8</v>
       </c>
       <c r="E7" s="7"/>
       <c r="J7" s="3">
@@ -28816,11 +28819,11 @@
         <v>1225</v>
       </c>
       <c r="L7" s="3">
-        <v>1.0000000000000001E-5</v>
+        <v>2.7E-6</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -28832,11 +28835,11 @@
         <v>3540</v>
       </c>
       <c r="C8" s="3">
-        <v>2.3E-5</v>
+        <v>6.7000000000000002E-6</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>6.7</v>
       </c>
       <c r="E8" s="7"/>
       <c r="J8" s="3">
@@ -28847,11 +28850,11 @@
         <v>1770</v>
       </c>
       <c r="L8" s="3">
-        <v>1.2999999999999999E-5</v>
+        <v>3.8999999999999999E-6</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -28863,11 +28866,11 @@
         <v>4830</v>
       </c>
       <c r="C9" s="3">
-        <v>3.1000000000000001E-5</v>
+        <v>9.0999999999999993E-6</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>9.1</v>
       </c>
       <c r="E9" s="7"/>
       <c r="J9" s="3">
@@ -28878,11 +28881,11 @@
         <v>2415</v>
       </c>
       <c r="L9" s="3">
-        <v>1.7E-5</v>
+        <v>5.2000000000000002E-6</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -28894,11 +28897,11 @@
         <v>6320</v>
       </c>
       <c r="C10" s="3">
-        <v>3.4999999999999997E-5</v>
+        <v>1.1800000000000001E-5</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>11.8</v>
       </c>
       <c r="E10" s="7"/>
       <c r="J10" s="3">
@@ -28909,11 +28912,11 @@
         <v>3160</v>
       </c>
       <c r="L10" s="3">
-        <v>2.6999999999999999E-5</v>
+        <v>9.9000000000000001E-6</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -28925,11 +28928,11 @@
         <v>8010</v>
       </c>
       <c r="C11" s="3">
-        <v>5.1999999999999997E-5</v>
+        <v>1.47E-5</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>14.7</v>
       </c>
       <c r="E11" s="7"/>
       <c r="J11" s="3">
@@ -28940,11 +28943,11 @@
         <v>4005</v>
       </c>
       <c r="L11" s="3">
-        <v>2.9E-5</v>
+        <v>8.6000000000000007E-6</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>8.6000000000000014</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -28956,11 +28959,11 @@
         <v>9900</v>
       </c>
       <c r="C12" s="3">
-        <v>6.0000000000000002E-5</v>
+        <v>1.8E-5</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E12" s="7"/>
       <c r="J12" s="3">
@@ -28971,11 +28974,11 @@
         <v>4950</v>
       </c>
       <c r="L12" s="3">
-        <v>3.4999999999999997E-5</v>
+        <v>1.0699999999999999E-5</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="3"/>
-        <v>35</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -28987,11 +28990,11 @@
         <v>11990</v>
       </c>
       <c r="C13" s="3">
-        <v>6.9999999999999994E-5</v>
+        <v>2.1800000000000001E-5</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>21.8</v>
       </c>
       <c r="E13" s="7"/>
       <c r="J13" s="3">
@@ -29002,11 +29005,11 @@
         <v>5995</v>
       </c>
       <c r="L13" s="3">
-        <v>4.3000000000000002E-5</v>
+        <v>1.26E-5</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="3"/>
-        <v>43</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -29018,11 +29021,11 @@
         <v>14280</v>
       </c>
       <c r="C14" s="3">
-        <v>1.01E-4</v>
+        <v>2.5700000000000001E-5</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>25.700000000000003</v>
       </c>
       <c r="E14" s="7"/>
       <c r="J14" s="3">
@@ -29033,11 +29036,11 @@
         <v>7140</v>
       </c>
       <c r="L14" s="3">
-        <v>5.0000000000000002E-5</v>
+        <v>1.5099999999999999E-5</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -29049,11 +29052,11 @@
         <v>16770</v>
       </c>
       <c r="C15" s="3">
-        <v>1.03E-4</v>
+        <v>3.8800000000000001E-5</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>38.800000000000004</v>
       </c>
       <c r="E15" s="7"/>
       <c r="J15" s="3">
@@ -29064,11 +29067,11 @@
         <v>8385</v>
       </c>
       <c r="L15" s="3">
-        <v>5.7000000000000003E-5</v>
+        <v>1.7399999999999999E-5</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="3"/>
-        <v>57</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -29080,11 +29083,11 @@
         <v>19460</v>
       </c>
       <c r="C16" s="3">
-        <v>1.15E-4</v>
+        <v>3.6100000000000003E-5</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>36.1</v>
       </c>
       <c r="E16" s="7"/>
       <c r="J16" s="3">
@@ -29095,11 +29098,11 @@
         <v>9730</v>
       </c>
       <c r="L16" s="3">
-        <v>6.6000000000000005E-5</v>
+        <v>2.0299999999999999E-5</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>20.299999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -29111,11 +29114,11 @@
         <v>22350</v>
       </c>
       <c r="C17" s="3">
-        <v>1.3799999999999999E-4</v>
+        <v>4.18E-5</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>41.8</v>
       </c>
       <c r="E17" s="7"/>
       <c r="J17" s="3">
@@ -29126,11 +29129,11 @@
         <v>11175</v>
       </c>
       <c r="L17" s="3">
-        <v>7.7999999999999999E-5</v>
+        <v>2.3099999999999999E-5</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>23.099999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -29142,11 +29145,11 @@
         <v>25440</v>
       </c>
       <c r="C18" s="3">
-        <v>1.4899999999999999E-4</v>
+        <v>4.6699999999999997E-5</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>149</v>
+        <v>46.699999999999996</v>
       </c>
       <c r="E18" s="7"/>
       <c r="J18" s="3">
@@ -29157,11 +29160,11 @@
         <v>12720</v>
       </c>
       <c r="L18" s="3">
-        <v>8.2000000000000001E-5</v>
+        <v>2.6299999999999999E-5</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>26.299999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -29173,11 +29176,11 @@
         <v>28730</v>
       </c>
       <c r="C19" s="3">
-        <v>1.6899999999999999E-4</v>
+        <v>5.24E-5</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>52.4</v>
       </c>
       <c r="E19" s="7"/>
       <c r="J19" s="3">
@@ -29188,11 +29191,11 @@
         <v>14365</v>
       </c>
       <c r="L19" s="3">
-        <v>9.5000000000000005E-5</v>
+        <v>2.9600000000000001E-5</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -29204,11 +29207,11 @@
         <v>32220</v>
       </c>
       <c r="C20" s="3">
-        <v>1.8599999999999999E-4</v>
+        <v>6.41E-5</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="E20" s="7"/>
       <c r="J20" s="3">
@@ -29219,11 +29222,11 @@
         <v>16110</v>
       </c>
       <c r="L20" s="3">
-        <v>1.08E-4</v>
+        <v>3.4199999999999998E-5</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="3"/>
-        <v>108</v>
+        <v>34.199999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -29235,11 +29238,11 @@
         <v>35910</v>
       </c>
       <c r="C21" s="3">
-        <v>1.9799999999999999E-4</v>
+        <v>6.5300000000000002E-5</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>198</v>
+        <v>65.3</v>
       </c>
       <c r="E21" s="7"/>
       <c r="J21" s="3">
@@ -29250,11 +29253,11 @@
         <v>17955</v>
       </c>
       <c r="L21" s="3">
-        <v>1.1900000000000001E-4</v>
+        <v>3.6600000000000002E-5</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="3"/>
-        <v>119</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -29266,11 +29269,11 @@
         <v>39800</v>
       </c>
       <c r="C22" s="3">
-        <v>2.31E-4</v>
+        <v>7.2299999999999996E-5</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>231</v>
+        <v>72.3</v>
       </c>
       <c r="E22" s="7"/>
       <c r="J22" s="3">
@@ -29281,11 +29284,11 @@
         <v>19900</v>
       </c>
       <c r="L22" s="3">
-        <v>1.34E-4</v>
+        <v>4.07E-5</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="3"/>
-        <v>134</v>
+        <v>40.700000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -29297,11 +29300,11 @@
         <v>43890</v>
       </c>
       <c r="C23" s="3">
-        <v>2.4000000000000001E-4</v>
+        <v>8.03E-5</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>80.3</v>
       </c>
       <c r="E23" s="7"/>
       <c r="J23" s="3">
@@ -29312,11 +29315,11 @@
         <v>21945</v>
       </c>
       <c r="L23" s="3">
-        <v>1.4799999999999999E-4</v>
+        <v>4.4799999999999998E-5</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="3"/>
-        <v>148</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -29328,11 +29331,11 @@
         <v>48180</v>
       </c>
       <c r="C24" s="3">
-        <v>2.7500000000000002E-4</v>
+        <v>8.7100000000000003E-5</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>87.100000000000009</v>
       </c>
       <c r="E24" s="7"/>
       <c r="J24" s="3">
@@ -29343,11 +29346,11 @@
         <v>24090</v>
       </c>
       <c r="L24" s="3">
-        <v>1.6200000000000001E-4</v>
+        <v>4.8900000000000003E-5</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="3"/>
-        <v>162</v>
+        <v>48.900000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -29359,11 +29362,11 @@
         <v>52670</v>
       </c>
       <c r="C25" s="3">
-        <v>3.0400000000000002E-4</v>
+        <v>9.5000000000000005E-5</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
-        <v>304</v>
+        <v>95</v>
       </c>
       <c r="E25" s="7"/>
       <c r="J25" s="3">
@@ -29374,11 +29377,11 @@
         <v>26335</v>
       </c>
       <c r="L25" s="3">
-        <v>1.83E-4</v>
+        <v>5.38E-5</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -29390,11 +29393,11 @@
         <v>57360</v>
       </c>
       <c r="C26" s="3">
-        <v>3.1599999999999998E-4</v>
+        <v>1.036E-4</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
-        <v>316</v>
+        <v>103.6</v>
       </c>
       <c r="E26" s="7"/>
       <c r="J26" s="3">
@@ -29405,11 +29408,11 @@
         <v>28680</v>
       </c>
       <c r="L26" s="3">
-        <v>1.94E-4</v>
+        <v>5.8400000000000003E-5</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="3"/>
-        <v>194</v>
+        <v>58.400000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -29421,11 +29424,11 @@
         <v>62250</v>
       </c>
       <c r="C27" s="3">
-        <v>3.48E-4</v>
+        <v>1.12E-4</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>348</v>
+        <v>112</v>
       </c>
       <c r="E27" s="7"/>
       <c r="J27" s="3">
@@ -29436,11 +29439,11 @@
         <v>31125</v>
       </c>
       <c r="L27" s="3">
-        <v>2.1100000000000001E-4</v>
+        <v>6.3200000000000005E-5</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="3"/>
-        <v>211</v>
+        <v>63.2</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -29452,11 +29455,11 @@
         <v>67340</v>
       </c>
       <c r="C28" s="3">
-        <v>3.6999999999999999E-4</v>
+        <v>1.211E-4</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
-        <v>370</v>
+        <v>121.10000000000001</v>
       </c>
       <c r="E28" s="7"/>
       <c r="J28" s="3">
@@ -29467,11 +29470,11 @@
         <v>33670</v>
       </c>
       <c r="L28" s="3">
-        <v>2.24E-4</v>
+        <v>6.7999999999999999E-5</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="3"/>
-        <v>224</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -29483,11 +29486,11 @@
         <v>72630</v>
       </c>
       <c r="C29" s="3">
-        <v>4.15E-4</v>
+        <v>1.3119999999999999E-4</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>415</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="E29" s="7"/>
       <c r="J29" s="3">
@@ -29498,11 +29501,11 @@
         <v>36315</v>
       </c>
       <c r="L29" s="3">
-        <v>2.7099999999999997E-4</v>
+        <v>7.4599999999999997E-5</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="3"/>
-        <v>271</v>
+        <v>74.599999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -29514,11 +29517,11 @@
         <v>78120</v>
       </c>
       <c r="C30" s="3">
-        <v>4.44E-4</v>
+        <v>1.4129999999999999E-4</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>444</v>
+        <v>141.29999999999998</v>
       </c>
       <c r="E30" s="7"/>
       <c r="J30" s="3">
@@ -29529,11 +29532,11 @@
         <v>39060</v>
       </c>
       <c r="L30" s="3">
-        <v>2.5799999999999998E-4</v>
+        <v>7.9099999999999998E-5</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="3"/>
-        <v>258</v>
+        <v>79.099999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -29545,11 +29548,11 @@
         <v>83810</v>
       </c>
       <c r="C31" s="3">
-        <v>4.7800000000000002E-4</v>
+        <v>1.4300000000000001E-4</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>478</v>
+        <v>143</v>
       </c>
       <c r="E31" s="7"/>
       <c r="J31" s="3">
@@ -29560,11 +29563,11 @@
         <v>41905</v>
       </c>
       <c r="L31" s="3">
-        <v>2.7700000000000001E-4</v>
+        <v>8.4800000000000001E-5</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="3"/>
-        <v>277</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -29576,11 +29579,11 @@
         <v>89700</v>
       </c>
       <c r="C32" s="3">
-        <v>4.9600000000000002E-4</v>
+        <v>1.5679999999999999E-4</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>496</v>
+        <v>156.79999999999998</v>
       </c>
       <c r="E32" s="7"/>
       <c r="J32" s="3">
@@ -29591,11 +29594,11 @@
         <v>44850</v>
       </c>
       <c r="L32" s="3">
-        <v>3.1100000000000002E-4</v>
+        <v>9.09E-5</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="3"/>
-        <v>311</v>
+        <v>90.9</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -29607,11 +29610,11 @@
         <v>95790</v>
       </c>
       <c r="C33" s="3">
-        <v>5.2300000000000003E-4</v>
+        <v>2.3130000000000001E-4</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>523</v>
+        <v>231.3</v>
       </c>
       <c r="E33" s="7"/>
       <c r="J33" s="3">
@@ -29622,11 +29625,11 @@
         <v>47895</v>
       </c>
       <c r="L33" s="3">
-        <v>3.1300000000000002E-4</v>
+        <v>9.7100000000000002E-5</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="3"/>
-        <v>313</v>
+        <v>97.100000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -29638,11 +29641,11 @@
         <v>102080</v>
       </c>
       <c r="C34" s="3">
-        <v>5.7700000000000004E-4</v>
+        <v>2.4610000000000002E-4</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>577</v>
+        <v>246.10000000000002</v>
       </c>
       <c r="E34" s="7"/>
       <c r="J34" s="3">
@@ -29653,11 +29656,11 @@
         <v>51040</v>
       </c>
       <c r="L34" s="3">
-        <v>3.4099999999999999E-4</v>
+        <v>1.0450000000000001E-4</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="3"/>
-        <v>341</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -29669,11 +29672,11 @@
         <v>108570</v>
       </c>
       <c r="C35" s="3">
-        <v>6.11E-4</v>
+        <v>2.476E-4</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>611</v>
+        <v>247.6</v>
       </c>
       <c r="E35" s="7"/>
       <c r="J35" s="3">
@@ -29684,11 +29687,11 @@
         <v>54285</v>
       </c>
       <c r="L35" s="3">
-        <v>3.6999999999999999E-4</v>
+        <v>1.0950000000000001E-4</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="3"/>
-        <v>370</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -29700,11 +29703,11 @@
         <v>115260</v>
       </c>
       <c r="C36" s="3">
-        <v>6.3000000000000003E-4</v>
+        <v>2.6650000000000003E-4</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>630</v>
+        <v>266.5</v>
       </c>
       <c r="E36" s="7"/>
       <c r="J36" s="3">
@@ -29715,11 +29718,11 @@
         <v>57630</v>
       </c>
       <c r="L36" s="3">
-        <v>3.8000000000000002E-4</v>
+        <v>1.1730000000000001E-4</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="3"/>
-        <v>380</v>
+        <v>117.30000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -29731,11 +29734,11 @@
         <v>122150</v>
       </c>
       <c r="C37" s="3">
-        <v>6.8300000000000001E-4</v>
+        <v>2.7030000000000001E-4</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>683</v>
+        <v>270.3</v>
       </c>
       <c r="E37" s="7"/>
       <c r="J37" s="3">
@@ -29746,11 +29749,11 @@
         <v>61075</v>
       </c>
       <c r="L37" s="3">
-        <v>4.0900000000000002E-4</v>
+        <v>1.239E-4</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="3"/>
-        <v>409</v>
+        <v>123.9</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -29762,11 +29765,11 @@
         <v>129240</v>
       </c>
       <c r="C38" s="3">
-        <v>7.1199999999999996E-4</v>
+        <v>2.5010000000000001E-4</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>712</v>
+        <v>250.1</v>
       </c>
       <c r="E38" s="7"/>
       <c r="J38" s="3">
@@ -29777,11 +29780,11 @@
         <v>64620</v>
       </c>
       <c r="L38" s="3">
-        <v>4.46E-4</v>
+        <v>1.306E-4</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="3"/>
-        <v>446</v>
+        <v>130.6</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -29793,11 +29796,11 @@
         <v>136530</v>
       </c>
       <c r="C39" s="3">
-        <v>7.4100000000000001E-4</v>
+        <v>2.8400000000000002E-4</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
-        <v>741</v>
+        <v>284</v>
       </c>
       <c r="E39" s="7"/>
       <c r="J39" s="3">
@@ -29808,11 +29811,11 @@
         <v>68265</v>
       </c>
       <c r="L39" s="3">
-        <v>4.5399999999999998E-4</v>
+        <v>1.3750000000000001E-4</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="3"/>
-        <v>454</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -29824,11 +29827,11 @@
         <v>144020</v>
       </c>
       <c r="C40" s="3">
-        <v>8.1599999999999999E-4</v>
+        <v>2.4649999999999997E-4</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="1"/>
-        <v>816</v>
+        <v>246.49999999999997</v>
       </c>
       <c r="E40" s="7"/>
       <c r="J40" s="3">
@@ -29839,11 +29842,11 @@
         <v>72010</v>
       </c>
       <c r="L40" s="3">
-        <v>4.9200000000000003E-4</v>
+        <v>1.4459999999999999E-4</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="3"/>
-        <v>492.00000000000006</v>
+        <v>144.6</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -29855,11 +29858,11 @@
         <v>151710</v>
       </c>
       <c r="C41" s="3">
-        <v>8.6499999999999999E-4</v>
+        <v>2.5789999999999998E-4</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="1"/>
-        <v>865</v>
+        <v>257.89999999999998</v>
       </c>
       <c r="E41" s="7"/>
       <c r="J41" s="3">
@@ -29870,11 +29873,11 @@
         <v>75855</v>
       </c>
       <c r="L41" s="3">
-        <v>5.22E-4</v>
+        <v>1.529E-4</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="3"/>
-        <v>522</v>
+        <v>152.9</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -29886,11 +29889,11 @@
         <v>159600</v>
       </c>
       <c r="C42" s="3">
-        <v>8.9300000000000002E-4</v>
+        <v>2.7369999999999998E-4</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="1"/>
-        <v>893</v>
+        <v>273.7</v>
       </c>
       <c r="E42" s="7"/>
       <c r="J42" s="3">
@@ -29901,11 +29904,11 @@
         <v>79800</v>
       </c>
       <c r="L42" s="3">
-        <v>5.22E-4</v>
+        <v>1.6090000000000001E-4</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="3"/>
-        <v>522</v>
+        <v>160.9</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -29917,11 +29920,11 @@
         <v>167690</v>
       </c>
       <c r="C43" s="3">
-        <v>9.2800000000000001E-4</v>
+        <v>2.8479999999999998E-4</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="1"/>
-        <v>928</v>
+        <v>284.8</v>
       </c>
       <c r="E43" s="7"/>
       <c r="J43" s="3">
@@ -29932,11 +29935,11 @@
         <v>83845</v>
       </c>
       <c r="L43" s="3">
-        <v>5.5699999999999999E-4</v>
+        <v>1.693E-4</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="3"/>
-        <v>557</v>
+        <v>169.29999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -29948,11 +29951,11 @@
         <v>175980</v>
       </c>
       <c r="C44" s="3">
-        <v>9.6500000000000004E-4</v>
+        <v>2.9849999999999999E-4</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
-        <v>965</v>
+        <v>298.5</v>
       </c>
       <c r="E44" s="7"/>
       <c r="J44" s="3">
@@ -29963,11 +29966,11 @@
         <v>87990</v>
       </c>
       <c r="L44" s="3">
-        <v>5.7200000000000003E-4</v>
+        <v>1.749E-4</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="3"/>
-        <v>572</v>
+        <v>174.9</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -29979,11 +29982,11 @@
         <v>184470</v>
       </c>
       <c r="C45" s="3">
-        <v>1E-3</v>
+        <v>3.681E-4</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>368.1</v>
       </c>
       <c r="E45" s="7"/>
       <c r="J45" s="3">
@@ -29994,11 +29997,11 @@
         <v>92235</v>
       </c>
       <c r="L45" s="3">
-        <v>6.2600000000000004E-4</v>
+        <v>2.675E-4</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="3"/>
-        <v>626</v>
+        <v>267.5</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -30010,11 +30013,11 @@
         <v>193160</v>
       </c>
       <c r="C46" s="3">
-        <v>1.0349999999999999E-3</v>
+        <v>3.278E-4</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="1"/>
-        <v>1035</v>
+        <v>327.8</v>
       </c>
       <c r="E46" s="7"/>
       <c r="J46" s="3">
@@ -30025,11 +30028,11 @@
         <v>96580</v>
       </c>
       <c r="L46" s="3">
-        <v>6.4899999999999995E-4</v>
+        <v>2.5490000000000002E-4</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="3"/>
-        <v>649</v>
+        <v>254.9</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -30041,11 +30044,11 @@
         <v>202050</v>
       </c>
       <c r="C47" s="3">
-        <v>1.0809999999999999E-3</v>
+        <v>3.9580000000000003E-4</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="1"/>
-        <v>1081</v>
+        <v>395.8</v>
       </c>
       <c r="E47" s="7"/>
       <c r="J47" s="3">
@@ -30056,11 +30059,11 @@
         <v>101025</v>
       </c>
       <c r="L47" s="3">
-        <v>6.6399999999999999E-4</v>
+        <v>2.028E-4</v>
       </c>
       <c r="M47" s="1">
         <f t="shared" si="3"/>
-        <v>664</v>
+        <v>202.79999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -30072,11 +30075,11 @@
         <v>211140</v>
       </c>
       <c r="C48" s="3">
-        <v>1.1230000000000001E-3</v>
+        <v>3.5829999999999998E-4</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="1"/>
-        <v>1123</v>
+        <v>358.29999999999995</v>
       </c>
       <c r="E48" s="7"/>
       <c r="J48" s="3">
@@ -30087,11 +30090,11 @@
         <v>105570</v>
       </c>
       <c r="L48" s="3">
-        <v>7.1500000000000003E-4</v>
+        <v>2.1230000000000001E-4</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="3"/>
-        <v>715</v>
+        <v>212.3</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -30103,11 +30106,11 @@
         <v>220430</v>
       </c>
       <c r="C49" s="3">
-        <v>1.2390000000000001E-3</v>
+        <v>3.7310000000000002E-4</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="1"/>
-        <v>1239</v>
+        <v>373.1</v>
       </c>
       <c r="E49" s="7"/>
       <c r="J49" s="3">
@@ -30118,11 +30121,11 @@
         <v>110215</v>
       </c>
       <c r="L49" s="3">
-        <v>7.3700000000000002E-4</v>
+        <v>2.2169999999999999E-4</v>
       </c>
       <c r="M49" s="1">
         <f t="shared" si="3"/>
-        <v>737</v>
+        <v>221.7</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -30134,11 +30137,11 @@
         <v>229920</v>
       </c>
       <c r="C50" s="3">
-        <v>1.263E-3</v>
+        <v>4.1550000000000002E-4</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="1"/>
-        <v>1263</v>
+        <v>415.5</v>
       </c>
       <c r="E50" s="7"/>
       <c r="J50" s="3">
@@ -30149,11 +30152,11 @@
         <v>114960</v>
       </c>
       <c r="L50" s="3">
-        <v>7.7300000000000003E-4</v>
+        <v>2.3149999999999999E-4</v>
       </c>
       <c r="M50" s="1">
         <f t="shared" si="3"/>
-        <v>773</v>
+        <v>231.5</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -30165,11 +30168,11 @@
         <v>239610</v>
       </c>
       <c r="C51" s="3">
-        <v>1.284E-3</v>
+        <v>4.0489999999999998E-4</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="1"/>
-        <v>1284</v>
+        <v>404.9</v>
       </c>
       <c r="E51" s="7"/>
       <c r="J51" s="3">
@@ -30180,11 +30183,11 @@
         <v>119805</v>
       </c>
       <c r="L51" s="3">
-        <v>8.4199999999999998E-4</v>
+        <v>2.4230000000000001E-4</v>
       </c>
       <c r="M51" s="1">
         <f t="shared" si="3"/>
-        <v>842</v>
+        <v>242.3</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -30196,11 +30199,11 @@
         <v>249500</v>
       </c>
       <c r="C52" s="3">
-        <v>1.4109999999999999E-3</v>
+        <v>4.2260000000000003E-4</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="1"/>
-        <v>1411</v>
+        <v>422.6</v>
       </c>
       <c r="E52" s="7"/>
       <c r="J52" s="3">
@@ -30211,11 +30214,11 @@
         <v>124750</v>
       </c>
       <c r="L52" s="3">
-        <v>8.2100000000000001E-4</v>
+        <v>2.5490000000000002E-4</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" si="3"/>
-        <v>821</v>
+        <v>254.9</v>
       </c>
     </row>
   </sheetData>
@@ -30233,32 +30236,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
     <col min="13" max="13" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="7"/>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -30296,11 +30301,11 @@
         <v>22</v>
       </c>
       <c r="C3" s="3">
-        <v>3.9999999999999998E-6</v>
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="D3" s="1">
         <f>C3*1000000</f>
-        <v>4</v>
+        <v>0.3</v>
       </c>
       <c r="E3" s="7"/>
       <c r="J3" s="3">
@@ -30311,11 +30316,11 @@
         <v>13.5</v>
       </c>
       <c r="L3" s="3">
-        <v>1.9999999999999999E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="M3" s="1">
         <f>L3*1000000</f>
-        <v>2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -30327,11 +30332,11 @@
         <v>94.5</v>
       </c>
       <c r="C4" s="3">
-        <v>3.0000000000000001E-6</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D52" si="1">C4*1000000</f>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="7"/>
       <c r="J4" s="3">
@@ -30342,11 +30347,11 @@
         <v>28.5</v>
       </c>
       <c r="L4" s="3">
-        <v>1.9999999999999999E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ref="M4:M52" si="3">L4*1000000</f>
-        <v>2</v>
+        <v>9.9999999999999992E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -30358,11 +30363,11 @@
         <v>217</v>
       </c>
       <c r="C5" s="3">
-        <v>3.0000000000000001E-6</v>
+        <v>7.9999999999999996E-7</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0.79999999999999993</v>
       </c>
       <c r="E5" s="7"/>
       <c r="J5" s="3">
@@ -30373,11 +30378,11 @@
         <v>43.5</v>
       </c>
       <c r="L5" s="3">
-        <v>3.0000000000000001E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>9.9999999999999992E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -30389,11 +30394,11 @@
         <v>389.5</v>
       </c>
       <c r="C6" s="3">
-        <v>5.0000000000000004E-6</v>
+        <v>1.3E-6</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="E6" s="7"/>
       <c r="J6" s="3">
@@ -30404,11 +30409,11 @@
         <v>58.5</v>
       </c>
       <c r="L6" s="3">
-        <v>5.0000000000000004E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>9.9999999999999992E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -30420,11 +30425,11 @@
         <v>612</v>
       </c>
       <c r="C7" s="3">
-        <v>6.0000000000000002E-6</v>
+        <v>1.9E-6</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>1.9</v>
       </c>
       <c r="E7" s="7"/>
       <c r="J7" s="3">
@@ -30435,11 +30440,11 @@
         <v>73.5</v>
       </c>
       <c r="L7" s="3">
-        <v>6.0000000000000002E-6</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>9.9999999999999992E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -30451,11 +30456,11 @@
         <v>884.5</v>
       </c>
       <c r="C8" s="3">
-        <v>9.0000000000000002E-6</v>
+        <v>2.7E-6</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="E8" s="7"/>
       <c r="J8" s="3">
@@ -30466,11 +30471,11 @@
         <v>88.5</v>
       </c>
       <c r="L8" s="3">
-        <v>6.0000000000000002E-6</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>0.19999999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -30482,11 +30487,11 @@
         <v>1207</v>
       </c>
       <c r="C9" s="3">
-        <v>1.2E-5</v>
+        <v>3.5999999999999998E-6</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="E9" s="7"/>
       <c r="J9" s="3">
@@ -30497,11 +30502,11 @@
         <v>103.5</v>
       </c>
       <c r="L9" s="3">
-        <v>1.1E-5</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="M9" s="1">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>0.19999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -30513,11 +30518,11 @@
         <v>1579.5</v>
       </c>
       <c r="C10" s="3">
-        <v>1.4E-5</v>
+        <v>4.6999999999999999E-6</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>4.7</v>
       </c>
       <c r="E10" s="7"/>
       <c r="J10" s="3">
@@ -30528,11 +30533,11 @@
         <v>118.5</v>
       </c>
       <c r="L10" s="3">
-        <v>1.4E-5</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>0.19999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -30544,11 +30549,11 @@
         <v>2002</v>
       </c>
       <c r="C11" s="3">
-        <v>1.9000000000000001E-5</v>
+        <v>5.9000000000000003E-6</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>5.9</v>
       </c>
       <c r="E11" s="7"/>
       <c r="J11" s="3">
@@ -30559,11 +30564,11 @@
         <v>133.5</v>
       </c>
       <c r="L11" s="3">
-        <v>1.2999999999999999E-5</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>0.19999999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -30575,11 +30580,11 @@
         <v>2474.5</v>
       </c>
       <c r="C12" s="3">
-        <v>2.4000000000000001E-5</v>
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E12" s="7"/>
       <c r="J12" s="3">
@@ -30590,11 +30595,11 @@
         <v>148.5</v>
       </c>
       <c r="L12" s="3">
-        <v>2.0000000000000002E-5</v>
+        <v>1.9999999999999999E-7</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>0.19999999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -30606,11 +30611,11 @@
         <v>2997</v>
       </c>
       <c r="C13" s="3">
-        <v>2.8E-5</v>
+        <v>8.6000000000000007E-6</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>8.6000000000000014</v>
       </c>
       <c r="E13" s="7"/>
       <c r="J13" s="3">
@@ -30621,11 +30626,11 @@
         <v>163.5</v>
       </c>
       <c r="L13" s="3">
-        <v>2.4000000000000001E-5</v>
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -30637,11 +30642,11 @@
         <v>3569.5</v>
       </c>
       <c r="C14" s="3">
-        <v>3.3000000000000003E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E14" s="7"/>
       <c r="J14" s="3">
@@ -30652,11 +30657,11 @@
         <v>178.5</v>
       </c>
       <c r="L14" s="3">
-        <v>3.1999999999999999E-5</v>
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -30668,11 +30673,11 @@
         <v>4192</v>
       </c>
       <c r="C15" s="3">
-        <v>3.8000000000000002E-5</v>
+        <v>1.17E-5</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>11.7</v>
       </c>
       <c r="E15" s="7"/>
       <c r="J15" s="3">
@@ -30683,11 +30688,11 @@
         <v>193.5</v>
       </c>
       <c r="L15" s="3">
-        <v>2.1999999999999999E-5</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -30699,11 +30704,11 @@
         <v>4864.5</v>
       </c>
       <c r="C16" s="3">
-        <v>4.3999999999999999E-5</v>
+        <v>1.3499999999999999E-5</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>13.5</v>
       </c>
       <c r="E16" s="7"/>
       <c r="J16" s="3">
@@ -30714,11 +30719,11 @@
         <v>208.5</v>
       </c>
       <c r="L16" s="3">
-        <v>4.3999999999999999E-5</v>
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="3"/>
-        <v>44</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -30730,11 +30735,11 @@
         <v>5587</v>
       </c>
       <c r="C17" s="3">
-        <v>5.1E-5</v>
+        <v>1.52E-5</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>15.2</v>
       </c>
       <c r="E17" s="7"/>
       <c r="J17" s="3">
@@ -30745,11 +30750,11 @@
         <v>223.5</v>
       </c>
       <c r="L17" s="3">
-        <v>3.1000000000000001E-5</v>
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -30761,11 +30766,11 @@
         <v>6359.5</v>
       </c>
       <c r="C18" s="3">
-        <v>5.8E-5</v>
+        <v>1.7399999999999999E-5</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E18" s="7"/>
       <c r="J18" s="3">
@@ -30776,11 +30781,11 @@
         <v>238.5</v>
       </c>
       <c r="L18" s="3">
-        <v>3.1999999999999999E-5</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -30792,11 +30797,11 @@
         <v>7182</v>
       </c>
       <c r="C19" s="3">
-        <v>6.4999999999999994E-5</v>
+        <v>1.9700000000000001E-5</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>19.700000000000003</v>
       </c>
       <c r="E19" s="7"/>
       <c r="J19" s="3">
@@ -30807,11 +30812,11 @@
         <v>253.5</v>
       </c>
       <c r="L19" s="3">
-        <v>3.6000000000000001E-5</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -30823,11 +30828,11 @@
         <v>8054.5</v>
       </c>
       <c r="C20" s="3">
-        <v>7.2999999999999999E-5</v>
+        <v>2.19E-5</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>21.900000000000002</v>
       </c>
       <c r="E20" s="7"/>
       <c r="J20" s="3">
@@ -30838,11 +30843,11 @@
         <v>268.5</v>
       </c>
       <c r="L20" s="3">
-        <v>4.0000000000000003E-5</v>
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -30854,11 +30859,11 @@
         <v>8977</v>
       </c>
       <c r="C21" s="3">
-        <v>8.0000000000000007E-5</v>
+        <v>2.44E-5</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>24.4</v>
       </c>
       <c r="E21" s="7"/>
       <c r="J21" s="3">
@@ -30869,11 +30874,11 @@
         <v>283.5</v>
       </c>
       <c r="L21" s="3">
-        <v>4.5000000000000003E-5</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="3"/>
-        <v>45</v>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -30885,11 +30890,11 @@
         <v>9949.5</v>
       </c>
       <c r="C22" s="3">
-        <v>8.8999999999999995E-5</v>
+        <v>2.69E-5</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>26.9</v>
       </c>
       <c r="E22" s="7"/>
       <c r="J22" s="3">
@@ -30900,11 +30905,11 @@
         <v>298.5</v>
       </c>
       <c r="L22" s="3">
-        <v>4.8999999999999998E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="M22" s="1">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -30916,11 +30921,11 @@
         <v>10972</v>
       </c>
       <c r="C23" s="3">
-        <v>9.7999999999999997E-5</v>
+        <v>2.9600000000000001E-5</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>29.6</v>
       </c>
       <c r="E23" s="7"/>
       <c r="J23" s="3">
@@ -30931,11 +30936,11 @@
         <v>313.5</v>
       </c>
       <c r="L23" s="3">
-        <v>6.3999999999999997E-5</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -30947,11 +30952,11 @@
         <v>12044.5</v>
       </c>
       <c r="C24" s="3">
-        <v>1.07E-4</v>
+        <v>3.2400000000000001E-5</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>32.4</v>
       </c>
       <c r="E24" s="7"/>
       <c r="J24" s="3">
@@ -30962,11 +30967,11 @@
         <v>328.5</v>
       </c>
       <c r="L24" s="3">
-        <v>5.8999999999999998E-5</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>0.39999999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -30978,11 +30983,11 @@
         <v>13167</v>
       </c>
       <c r="C25" s="3">
-        <v>1.13E-4</v>
+        <v>3.5299999999999997E-5</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
-        <v>113</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E25" s="7"/>
       <c r="J25" s="3">
@@ -30993,11 +30998,11 @@
         <v>343.5</v>
       </c>
       <c r="L25" s="3">
-        <v>6.4999999999999994E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -31009,11 +31014,11 @@
         <v>14339.5</v>
       </c>
       <c r="C26" s="3">
-        <v>1.26E-4</v>
+        <v>3.8399999999999998E-5</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>38.4</v>
       </c>
       <c r="E26" s="7"/>
       <c r="J26" s="3">
@@ -31024,11 +31029,11 @@
         <v>358.5</v>
       </c>
       <c r="L26" s="3">
-        <v>6.9999999999999994E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -31040,11 +31045,11 @@
         <v>15562</v>
       </c>
       <c r="C27" s="3">
-        <v>1.37E-4</v>
+        <v>4.1399999999999997E-5</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>41.4</v>
       </c>
       <c r="E27" s="7"/>
       <c r="J27" s="3">
@@ -31055,11 +31060,11 @@
         <v>373.5</v>
       </c>
       <c r="L27" s="3">
-        <v>7.6000000000000004E-5</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -31071,11 +31076,11 @@
         <v>16834.5</v>
       </c>
       <c r="C28" s="3">
-        <v>1.5699999999999999E-4</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="E28" s="7"/>
       <c r="J28" s="3">
@@ -31086,11 +31091,11 @@
         <v>388.5</v>
       </c>
       <c r="L28" s="3">
-        <v>8.2000000000000001E-5</v>
+        <v>5.9999999999999997E-7</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -31102,11 +31107,11 @@
         <v>18157</v>
       </c>
       <c r="C29" s="3">
-        <v>1.6000000000000001E-4</v>
+        <v>4.8399999999999997E-5</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>48.4</v>
       </c>
       <c r="E29" s="7"/>
       <c r="J29" s="3">
@@ -31117,11 +31122,11 @@
         <v>403.5</v>
       </c>
       <c r="L29" s="3">
-        <v>1.0399999999999999E-4</v>
+        <v>5.9999999999999997E-7</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="3"/>
-        <v>104</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -31133,11 +31138,11 @@
         <v>19529.5</v>
       </c>
       <c r="C30" s="3">
-        <v>1.7899999999999999E-4</v>
+        <v>5.1900000000000001E-5</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>51.9</v>
       </c>
       <c r="E30" s="7"/>
       <c r="J30" s="3">
@@ -31148,11 +31153,11 @@
         <v>418.5</v>
       </c>
       <c r="L30" s="3">
-        <v>1.18E-4</v>
+        <v>5.9999999999999997E-7</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="3"/>
-        <v>118</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -31164,11 +31169,11 @@
         <v>20952</v>
       </c>
       <c r="C31" s="3">
-        <v>1.7899999999999999E-4</v>
+        <v>5.5600000000000003E-5</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>55.6</v>
       </c>
       <c r="E31" s="7"/>
       <c r="J31" s="3">
@@ -31179,11 +31184,11 @@
         <v>433.5</v>
       </c>
       <c r="L31" s="3">
-        <v>1.2400000000000001E-4</v>
+        <v>6.9999999999999997E-7</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -31195,11 +31200,11 @@
         <v>22424.5</v>
       </c>
       <c r="C32" s="3">
-        <v>1.9900000000000001E-4</v>
+        <v>5.9500000000000003E-5</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>59.5</v>
       </c>
       <c r="E32" s="7"/>
       <c r="J32" s="3">
@@ -31210,11 +31215,11 @@
         <v>448.5</v>
       </c>
       <c r="L32" s="3">
-        <v>1.12E-4</v>
+        <v>5.9999999999999997E-7</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -31226,11 +31231,11 @@
         <v>23947</v>
       </c>
       <c r="C33" s="3">
-        <v>2.1699999999999999E-4</v>
+        <v>7.9699999999999999E-5</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>217</v>
+        <v>79.7</v>
       </c>
       <c r="E33" s="7"/>
       <c r="J33" s="3">
@@ -31241,11 +31246,11 @@
         <v>463.5</v>
       </c>
       <c r="L33" s="3">
-        <v>1.16E-4</v>
+        <v>7.9999999999999996E-7</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="3"/>
-        <v>116</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -31257,11 +31262,11 @@
         <v>25519.5</v>
       </c>
       <c r="C34" s="3">
-        <v>2.1900000000000001E-4</v>
+        <v>8.4499999999999994E-5</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>219</v>
+        <v>84.5</v>
       </c>
       <c r="E34" s="7"/>
       <c r="J34" s="3">
@@ -31272,11 +31277,11 @@
         <v>478.5</v>
       </c>
       <c r="L34" s="3">
-        <v>1.2400000000000001E-4</v>
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="3"/>
-        <v>124</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -31288,11 +31293,11 @@
         <v>27142</v>
       </c>
       <c r="C35" s="3">
-        <v>2.3599999999999999E-4</v>
+        <v>9.0799999999999998E-5</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>236</v>
+        <v>90.8</v>
       </c>
       <c r="E35" s="7"/>
       <c r="J35" s="3">
@@ -31303,11 +31308,11 @@
         <v>493.5</v>
       </c>
       <c r="L35" s="3">
-        <v>1.3100000000000001E-4</v>
+        <v>6.9999999999999997E-7</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="3"/>
-        <v>131</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -31319,11 +31324,11 @@
         <v>28814.5</v>
       </c>
       <c r="C36" s="3">
-        <v>2.52E-4</v>
+        <v>9.4900000000000003E-5</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>252</v>
+        <v>94.9</v>
       </c>
       <c r="E36" s="7"/>
       <c r="J36" s="3">
@@ -31334,11 +31339,11 @@
         <v>508.5</v>
       </c>
       <c r="L36" s="3">
-        <v>1.3999999999999999E-4</v>
+        <v>7.9999999999999996E-7</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="3"/>
-        <v>140</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -31350,11 +31355,11 @@
         <v>30537</v>
       </c>
       <c r="C37" s="3">
-        <v>2.7300000000000002E-4</v>
+        <v>1.015E-4</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>273</v>
+        <v>101.5</v>
       </c>
       <c r="E37" s="7"/>
       <c r="J37" s="3">
@@ -31365,11 +31370,11 @@
         <v>523.5</v>
       </c>
       <c r="L37" s="3">
-        <v>1.7699999999999999E-4</v>
+        <v>7.9999999999999996E-7</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="3"/>
-        <v>177</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -31381,11 +31386,11 @@
         <v>32309.5</v>
       </c>
       <c r="C38" s="3">
-        <v>2.8200000000000002E-4</v>
+        <v>8.5099999999999995E-5</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>282</v>
+        <v>85.1</v>
       </c>
       <c r="E38" s="7"/>
       <c r="J38" s="3">
@@ -31396,11 +31401,11 @@
         <v>538.5</v>
       </c>
       <c r="L38" s="3">
-        <v>1.73E-4</v>
+        <v>6.9999999999999997E-7</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="3"/>
-        <v>173</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -31412,11 +31417,11 @@
         <v>34132</v>
       </c>
       <c r="C39" s="3">
-        <v>2.9100000000000003E-4</v>
+        <v>8.9800000000000001E-5</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>89.8</v>
       </c>
       <c r="E39" s="7"/>
       <c r="J39" s="3">
@@ -31427,11 +31432,11 @@
         <v>553.5</v>
       </c>
       <c r="L39" s="3">
-        <v>1.64E-4</v>
+        <v>7.9999999999999996E-7</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="3"/>
-        <v>164</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -31443,11 +31448,11 @@
         <v>36004.5</v>
       </c>
       <c r="C40" s="3">
-        <v>3.1799999999999998E-4</v>
+        <v>9.4599999999999996E-5</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>94.6</v>
       </c>
       <c r="E40" s="7"/>
       <c r="J40" s="3">
@@ -31458,11 +31463,11 @@
         <v>568.5</v>
       </c>
       <c r="L40" s="3">
-        <v>1.7200000000000001E-4</v>
+        <v>7.9999999999999996E-7</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="3"/>
-        <v>172</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -31474,11 +31479,11 @@
         <v>37927</v>
       </c>
       <c r="C41" s="3">
-        <v>3.2699999999999998E-4</v>
+        <v>9.9500000000000006E-5</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="1"/>
-        <v>327</v>
+        <v>99.5</v>
       </c>
       <c r="E41" s="7"/>
       <c r="J41" s="3">
@@ -31489,11 +31494,11 @@
         <v>583.5</v>
       </c>
       <c r="L41" s="3">
-        <v>2.1000000000000001E-4</v>
+        <v>7.9999999999999996E-7</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -31505,11 +31510,11 @@
         <v>39899.5</v>
       </c>
       <c r="C42" s="3">
-        <v>3.6400000000000001E-4</v>
+        <v>1.0459999999999999E-4</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="1"/>
-        <v>364</v>
+        <v>104.6</v>
       </c>
       <c r="E42" s="7"/>
       <c r="J42" s="3">
@@ -31520,11 +31525,11 @@
         <v>598.5</v>
       </c>
       <c r="L42" s="3">
-        <v>1.9000000000000001E-4</v>
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -31536,11 +31541,11 @@
         <v>41922</v>
       </c>
       <c r="C43" s="3">
-        <v>3.7399999999999998E-4</v>
+        <v>1.3740000000000001E-4</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="1"/>
-        <v>374</v>
+        <v>137.4</v>
       </c>
       <c r="E43" s="7"/>
       <c r="J43" s="3">
@@ -31551,11 +31556,11 @@
         <v>613.5</v>
       </c>
       <c r="L43" s="3">
-        <v>2.3800000000000001E-4</v>
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="3"/>
-        <v>238</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -31567,11 +31572,11 @@
         <v>43994.5</v>
       </c>
       <c r="C44" s="3">
-        <v>3.97E-4</v>
+        <v>1.155E-4</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
-        <v>397</v>
+        <v>115.5</v>
       </c>
       <c r="E44" s="7"/>
       <c r="J44" s="3">
@@ -31582,11 +31587,11 @@
         <v>628.5</v>
       </c>
       <c r="L44" s="3">
-        <v>2.1000000000000001E-4</v>
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -31598,11 +31603,11 @@
         <v>46117</v>
       </c>
       <c r="C45" s="3">
-        <v>4.2900000000000002E-4</v>
+        <v>1.2459999999999999E-4</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="1"/>
-        <v>429</v>
+        <v>124.6</v>
       </c>
       <c r="E45" s="7"/>
       <c r="J45" s="3">
@@ -31613,11 +31618,11 @@
         <v>643.5</v>
       </c>
       <c r="L45" s="3">
-        <v>2.1900000000000001E-4</v>
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="3"/>
-        <v>219</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -31629,11 +31634,11 @@
         <v>48289.5</v>
       </c>
       <c r="C46" s="3">
-        <v>4.3800000000000002E-4</v>
+        <v>1.262E-4</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="1"/>
-        <v>438</v>
+        <v>126.2</v>
       </c>
       <c r="E46" s="7"/>
       <c r="J46" s="3">
@@ -31644,11 +31649,11 @@
         <v>658.5</v>
       </c>
       <c r="L46" s="3">
-        <v>2.4499999999999999E-4</v>
+        <v>8.9999999999999996E-7</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="3"/>
-        <v>245</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -31660,11 +31665,11 @@
         <v>50512</v>
       </c>
       <c r="C47" s="3">
-        <v>4.4299999999999998E-4</v>
+        <v>1.3210000000000001E-4</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="1"/>
-        <v>443</v>
+        <v>132.10000000000002</v>
       </c>
       <c r="E47" s="7"/>
       <c r="J47" s="3">
@@ -31675,11 +31680,11 @@
         <v>673.5</v>
       </c>
       <c r="L47" s="3">
-        <v>2.7999999999999998E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="M47" s="1">
         <f t="shared" si="3"/>
-        <v>280</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -31691,11 +31696,11 @@
         <v>52784.5</v>
       </c>
       <c r="C48" s="3">
-        <v>4.37E-4</v>
+        <v>1.3779999999999999E-4</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="1"/>
-        <v>437</v>
+        <v>137.79999999999998</v>
       </c>
       <c r="E48" s="7"/>
       <c r="J48" s="3">
@@ -31706,11 +31711,11 @@
         <v>688.5</v>
       </c>
       <c r="L48" s="3">
-        <v>2.5099999999999998E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="3"/>
-        <v>250.99999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -31722,11 +31727,11 @@
         <v>55107</v>
       </c>
       <c r="C49" s="3">
-        <v>4.6000000000000001E-4</v>
+        <v>1.8039999999999999E-4</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="1"/>
-        <v>460</v>
+        <v>180.4</v>
       </c>
       <c r="E49" s="7"/>
       <c r="J49" s="3">
@@ -31737,11 +31742,11 @@
         <v>703.5</v>
       </c>
       <c r="L49" s="3">
-        <v>2.63E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="M49" s="1">
         <f t="shared" si="3"/>
-        <v>263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -31753,11 +31758,11 @@
         <v>57479.5</v>
       </c>
       <c r="C50" s="3">
-        <v>4.75E-4</v>
+        <v>1.8689999999999999E-4</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="1"/>
-        <v>475</v>
+        <v>186.89999999999998</v>
       </c>
       <c r="E50" s="7"/>
       <c r="J50" s="3">
@@ -31768,11 +31773,11 @@
         <v>718.5</v>
       </c>
       <c r="L50" s="3">
-        <v>2.7300000000000002E-4</v>
+        <v>1.1000000000000001E-6</v>
       </c>
       <c r="M50" s="1">
         <f t="shared" si="3"/>
-        <v>273</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -31784,11 +31789,11 @@
         <v>59902</v>
       </c>
       <c r="C51" s="3">
-        <v>4.9899999999999999E-4</v>
+        <v>2.3360000000000001E-4</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="1"/>
-        <v>499</v>
+        <v>233.60000000000002</v>
       </c>
       <c r="E51" s="7"/>
       <c r="J51" s="3">
@@ -31799,11 +31804,11 @@
         <v>733.5</v>
       </c>
       <c r="L51" s="3">
-        <v>3.2499999999999999E-4</v>
+        <v>1.1000000000000001E-6</v>
       </c>
       <c r="M51" s="1">
         <f t="shared" si="3"/>
-        <v>325</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -31815,11 +31820,11 @@
         <v>62374.5</v>
       </c>
       <c r="C52" s="3">
-        <v>5.1500000000000005E-4</v>
+        <v>1.6220000000000001E-4</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="1"/>
-        <v>515</v>
+        <v>162.20000000000002</v>
       </c>
       <c r="E52" s="7"/>
       <c r="J52" s="3">
@@ -31830,11 +31835,11 @@
         <v>748.5</v>
       </c>
       <c r="L52" s="3">
-        <v>3.4400000000000001E-4</v>
+        <v>1.1000000000000001E-6</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" si="3"/>
-        <v>344</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -31851,8 +31856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31863,16 +31868,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -31898,11 +31903,11 @@
         <v>54</v>
       </c>
       <c r="C3" s="3">
-        <v>1.9999999999999999E-6</v>
+        <v>2.9999999999999999E-7</v>
       </c>
       <c r="D3" s="1">
         <f>C3*1000000</f>
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="F3" s="6"/>
       <c r="H3" s="6"/>
@@ -31916,11 +31921,11 @@
         <v>209</v>
       </c>
       <c r="C4" s="3">
-        <v>3.0000000000000001E-6</v>
+        <v>6.9999999999999997E-7</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D52" si="1">C4*1000000</f>
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="F4" s="6"/>
       <c r="H4" s="6"/>
@@ -31934,11 +31939,11 @@
         <v>464</v>
       </c>
       <c r="C5" s="3">
-        <v>3.0000000000000001E-6</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="6"/>
       <c r="H5" s="6"/>
@@ -31952,11 +31957,11 @@
         <v>819</v>
       </c>
       <c r="C6" s="3">
-        <v>5.0000000000000004E-6</v>
+        <v>1.3999999999999999E-6</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="F6" s="6"/>
       <c r="H6" s="6"/>
@@ -31970,11 +31975,11 @@
         <v>1274</v>
       </c>
       <c r="C7" s="3">
-        <v>6.9999999999999999E-6</v>
+        <v>1.9E-6</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>1.9</v>
       </c>
       <c r="F7" s="6"/>
       <c r="H7" s="6"/>
@@ -31988,11 +31993,11 @@
         <v>1829</v>
       </c>
       <c r="C8" s="3">
-        <v>9.0000000000000002E-6</v>
+        <v>2.6000000000000001E-6</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>2.6</v>
       </c>
       <c r="F8" s="6"/>
       <c r="H8" s="6"/>
@@ -32006,11 +32011,11 @@
         <v>2484</v>
       </c>
       <c r="C9" s="3">
-        <v>1.0000000000000001E-5</v>
+        <v>3.3000000000000002E-6</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="F9" s="6"/>
       <c r="H9" s="6"/>
@@ -32024,11 +32029,11 @@
         <v>3239</v>
       </c>
       <c r="C10" s="3">
-        <v>1.2E-5</v>
+        <v>4.1999999999999996E-6</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>4.1999999999999993</v>
       </c>
       <c r="F10" s="6"/>
       <c r="H10" s="6"/>
@@ -32042,11 +32047,11 @@
         <v>4094</v>
       </c>
       <c r="C11" s="3">
-        <v>1.7E-5</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F11" s="6"/>
       <c r="H11" s="6"/>
@@ -32060,11 +32065,11 @@
         <v>5049</v>
       </c>
       <c r="C12" s="3">
-        <v>1.5E-5</v>
+        <v>6.1999999999999999E-6</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>6.2</v>
       </c>
       <c r="F12" s="6"/>
       <c r="H12" s="6"/>
@@ -32078,11 +32083,11 @@
         <v>6104</v>
       </c>
       <c r="C13" s="3">
-        <v>1.8E-5</v>
+        <v>7.4000000000000003E-6</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>7.4</v>
       </c>
       <c r="F13" s="6"/>
       <c r="H13" s="6"/>
@@ -32096,11 +32101,11 @@
         <v>7259</v>
       </c>
       <c r="C14" s="3">
-        <v>2.8E-5</v>
+        <v>8.6000000000000007E-6</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>8.6000000000000014</v>
       </c>
       <c r="F14" s="6"/>
       <c r="H14" s="6"/>
@@ -32114,11 +32119,11 @@
         <v>8514</v>
       </c>
       <c r="C15" s="3">
-        <v>2.5000000000000001E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F15" s="6"/>
       <c r="H15" s="6"/>
@@ -32132,11 +32137,11 @@
         <v>9869</v>
       </c>
       <c r="C16" s="3">
-        <v>3.4E-5</v>
+        <v>1.1600000000000001E-5</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>11.600000000000001</v>
       </c>
       <c r="F16" s="6"/>
       <c r="H16" s="6"/>
@@ -32150,11 +32155,11 @@
         <v>11324</v>
       </c>
       <c r="C17" s="3">
-        <v>4.3999999999999999E-5</v>
+        <v>1.3200000000000001E-5</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="F17" s="6"/>
       <c r="H17" s="6"/>
@@ -32168,11 +32173,11 @@
         <v>12879</v>
       </c>
       <c r="C18" s="3">
-        <v>4.5000000000000003E-5</v>
+        <v>1.5E-5</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F18" s="6"/>
       <c r="H18" s="6"/>
@@ -32186,11 +32191,11 @@
         <v>14534</v>
       </c>
       <c r="C19" s="3">
-        <v>5.1999999999999997E-5</v>
+        <v>1.66E-5</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="F19" s="6"/>
       <c r="H19" s="6"/>
@@ -32204,11 +32209,11 @@
         <v>16289</v>
       </c>
       <c r="C20" s="3">
-        <v>6.2000000000000003E-5</v>
+        <v>1.8600000000000001E-5</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F20" s="6"/>
       <c r="H20" s="6"/>
@@ -32222,11 +32227,11 @@
         <v>18144</v>
       </c>
       <c r="C21" s="3">
-        <v>6.7999999999999999E-5</v>
+        <v>2.05E-5</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>20.5</v>
       </c>
       <c r="F21" s="6"/>
       <c r="H21" s="6"/>
@@ -32240,11 +32245,11 @@
         <v>20099</v>
       </c>
       <c r="C22" s="3">
-        <v>7.2999999999999999E-5</v>
+        <v>2.2799999999999999E-5</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>22.799999999999997</v>
       </c>
       <c r="F22" s="6"/>
       <c r="H22" s="6"/>
@@ -32258,11 +32263,11 @@
         <v>22154</v>
       </c>
       <c r="C23" s="3">
-        <v>8.5000000000000006E-5</v>
+        <v>2.4899999999999999E-5</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>24.9</v>
       </c>
       <c r="F23" s="6"/>
       <c r="H23" s="6"/>
@@ -32276,11 +32281,11 @@
         <v>24309</v>
       </c>
       <c r="C24" s="3">
-        <v>8.7000000000000001E-5</v>
+        <v>3.3800000000000002E-5</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>33.800000000000004</v>
       </c>
       <c r="F24" s="6"/>
       <c r="H24" s="6"/>
@@ -32294,11 +32299,11 @@
         <v>26564</v>
       </c>
       <c r="C25" s="3">
-        <v>9.3999999999999994E-5</v>
+        <v>2.9200000000000002E-5</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>29.200000000000003</v>
       </c>
       <c r="F25" s="6"/>
       <c r="H25" s="6"/>
@@ -32312,11 +32317,11 @@
         <v>28919</v>
       </c>
       <c r="C26" s="3">
-        <v>1.03E-4</v>
+        <v>3.1600000000000002E-5</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>31.6</v>
       </c>
       <c r="F26" s="6"/>
       <c r="H26" s="6"/>
@@ -32330,11 +32335,11 @@
         <v>31374</v>
       </c>
       <c r="C27" s="3">
-        <v>1.13E-4</v>
+        <v>3.43E-5</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>113</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="F27" s="6"/>
       <c r="H27" s="6"/>
@@ -32348,11 +32353,11 @@
         <v>33929</v>
       </c>
       <c r="C28" s="3">
-        <v>1.13E-4</v>
+        <v>3.6699999999999998E-5</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
-        <v>113</v>
+        <v>36.699999999999996</v>
       </c>
       <c r="F28" s="6"/>
       <c r="H28" s="6"/>
@@ -32366,11 +32371,11 @@
         <v>36584</v>
       </c>
       <c r="C29" s="3">
-        <v>1.25E-4</v>
+        <v>3.9400000000000002E-5</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>39.400000000000006</v>
       </c>
       <c r="F29" s="6"/>
       <c r="H29" s="6"/>
@@ -32384,11 +32389,11 @@
         <v>39339</v>
       </c>
       <c r="C30" s="3">
-        <v>1.2400000000000001E-4</v>
+        <v>4.2599999999999999E-5</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>42.6</v>
       </c>
       <c r="F30" s="6"/>
       <c r="H30" s="6"/>
@@ -32402,11 +32407,11 @@
         <v>42194</v>
       </c>
       <c r="C31" s="3">
-        <v>1.2899999999999999E-4</v>
+        <v>4.5399999999999999E-5</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>45.4</v>
       </c>
       <c r="F31" s="6"/>
       <c r="H31" s="6"/>
@@ -32420,11 +32425,11 @@
         <v>45149</v>
       </c>
       <c r="C32" s="3">
-        <v>1.4300000000000001E-4</v>
+        <v>4.8600000000000002E-5</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>143</v>
+        <v>48.6</v>
       </c>
       <c r="F32" s="6"/>
       <c r="H32" s="6"/>
@@ -32438,11 +32443,11 @@
         <v>48204</v>
       </c>
       <c r="C33" s="3">
-        <v>1.66E-4</v>
+        <v>5.8300000000000001E-5</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>166</v>
+        <v>58.300000000000004</v>
       </c>
       <c r="F33" s="6"/>
       <c r="H33" s="6"/>
@@ -32456,11 +32461,11 @@
         <v>51359</v>
       </c>
       <c r="C34" s="3">
-        <v>1.73E-4</v>
+        <v>6.8800000000000005E-5</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>173</v>
+        <v>68.800000000000011</v>
       </c>
       <c r="F34" s="6"/>
       <c r="H34" s="6"/>
@@ -32474,11 +32479,11 @@
         <v>54614</v>
       </c>
       <c r="C35" s="3">
-        <v>1.6100000000000001E-4</v>
+        <v>7.2999999999999999E-5</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="F35" s="6"/>
       <c r="H35" s="6"/>
@@ -32492,11 +32497,11 @@
         <v>57969</v>
       </c>
       <c r="C36" s="3">
-        <v>1.6899999999999999E-4</v>
+        <v>7.7000000000000001E-5</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="F36" s="6"/>
       <c r="H36" s="6"/>
@@ -32510,11 +32515,11 @@
         <v>61424</v>
       </c>
       <c r="C37" s="3">
-        <v>2.0100000000000001E-4</v>
+        <v>6.5599999999999995E-5</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>201</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="F37" s="6"/>
       <c r="H37" s="6"/>
@@ -32528,11 +32533,11 @@
         <v>64979</v>
       </c>
       <c r="C38" s="3">
-        <v>1.8699999999999999E-4</v>
+        <v>6.8800000000000005E-5</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>187</v>
+        <v>68.800000000000011</v>
       </c>
       <c r="F38" s="6"/>
       <c r="H38" s="6"/>
@@ -32546,11 +32551,11 @@
         <v>68634</v>
       </c>
       <c r="C39" s="3">
-        <v>1.9599999999999999E-4</v>
+        <v>7.2999999999999999E-5</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="F39" s="6"/>
       <c r="H39" s="6"/>
@@ -32564,11 +32569,11 @@
         <v>72389</v>
       </c>
       <c r="C40" s="3">
-        <v>2.4699999999999999E-4</v>
+        <v>7.6699999999999994E-5</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="1"/>
-        <v>247</v>
+        <v>76.699999999999989</v>
       </c>
       <c r="F40" s="6"/>
       <c r="H40" s="6"/>
@@ -32582,11 +32587,11 @@
         <v>76244</v>
       </c>
       <c r="C41" s="3">
-        <v>2.1499999999999999E-4</v>
+        <v>8.0400000000000003E-5</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="1"/>
-        <v>215</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="F41" s="6"/>
       <c r="H41" s="6"/>
@@ -32600,11 +32605,11 @@
         <v>80199</v>
       </c>
       <c r="C42" s="3">
-        <v>2.14E-4</v>
+        <v>8.4900000000000004E-5</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="1"/>
-        <v>214</v>
+        <v>84.9</v>
       </c>
       <c r="F42" s="6"/>
       <c r="H42" s="6"/>
@@ -32618,11 +32623,11 @@
         <v>84254</v>
       </c>
       <c r="C43" s="3">
-        <v>2.2900000000000001E-4</v>
+        <v>8.8700000000000001E-5</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="1"/>
-        <v>229</v>
+        <v>88.7</v>
       </c>
       <c r="F43" s="6"/>
       <c r="H43" s="6"/>
@@ -32636,11 +32641,11 @@
         <v>88409</v>
       </c>
       <c r="C44" s="3">
-        <v>2.5500000000000002E-4</v>
+        <v>9.3200000000000002E-5</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="1"/>
-        <v>255.00000000000003</v>
+        <v>93.2</v>
       </c>
       <c r="F44" s="6"/>
       <c r="H44" s="6"/>
@@ -32654,11 +32659,11 @@
         <v>92664</v>
       </c>
       <c r="C45" s="3">
-        <v>2.6400000000000002E-4</v>
+        <v>9.7200000000000004E-5</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="1"/>
-        <v>264</v>
+        <v>97.2</v>
       </c>
       <c r="F45" s="6"/>
       <c r="H45" s="6"/>
@@ -32672,11 +32677,11 @@
         <v>97019</v>
       </c>
       <c r="C46" s="3">
-        <v>2.5999999999999998E-4</v>
+        <v>1.019E-4</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>101.89999999999999</v>
       </c>
       <c r="F46" s="6"/>
       <c r="H46" s="6"/>
@@ -32690,11 +32695,11 @@
         <v>101474</v>
       </c>
       <c r="C47" s="3">
-        <v>2.6400000000000002E-4</v>
+        <v>1.065E-4</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="1"/>
-        <v>264</v>
+        <v>106.5</v>
       </c>
       <c r="F47" s="6"/>
       <c r="H47" s="6"/>
@@ -32708,11 +32713,11 @@
         <v>106029</v>
       </c>
       <c r="C48" s="3">
-        <v>2.8400000000000002E-4</v>
+        <v>1.1129999999999999E-4</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="1"/>
-        <v>284</v>
+        <v>111.3</v>
       </c>
       <c r="F48" s="6"/>
       <c r="H48" s="6"/>
@@ -32726,11 +32731,11 @@
         <v>110684</v>
       </c>
       <c r="C49" s="3">
-        <v>3.21E-4</v>
+        <v>1.1900000000000001E-4</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="1"/>
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="F49" s="6"/>
       <c r="H49" s="6"/>
@@ -32744,11 +32749,11 @@
         <v>115439</v>
       </c>
       <c r="C50" s="3">
-        <v>3.2899999999999997E-4</v>
+        <v>1.2070000000000001E-4</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="1"/>
-        <v>329</v>
+        <v>120.7</v>
       </c>
       <c r="F50" s="6"/>
       <c r="H50" s="6"/>
@@ -32762,11 +32767,11 @@
         <v>120294</v>
       </c>
       <c r="C51" s="3">
-        <v>3.2400000000000001E-4</v>
+        <v>1.2579999999999999E-4</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>125.8</v>
       </c>
       <c r="F51" s="6"/>
       <c r="H51" s="6"/>
@@ -32780,11 +32785,11 @@
         <v>125249</v>
       </c>
       <c r="C52" s="3">
-        <v>3.9599999999999998E-4</v>
+        <v>1.3090000000000001E-4</v>
       </c>
       <c r="D52" s="1">
         <f t="shared" si="1"/>
-        <v>396</v>
+        <v>130.9</v>
       </c>
       <c r="F52" s="6"/>
       <c r="H52" s="6"/>
